--- a/wetlandP_v2.1/inputs/lcbp_sites/df.lcbp.stocks.xlsx
+++ b/wetlandP_v2.1/inputs/lcbp_sites/df.lcbp.stocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspace\wetlandP\model_versions\wetlandP_v2\wetlandP_v2.1\inputs\lcbp_sites\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian.Wiegman\Documents\GitHub\wetlandP_2p1_stable\wetlandP_v2.1\inputs\lcbp_sites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CA9573-5E75-46C3-A685-8D30A20B7144}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35693D9F-1D87-4409-BDB8-49C93EB3B378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="19" r:id="rId1"/>
@@ -3532,7 +3532,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3540,9 +3540,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3568,7 +3565,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3612,7 +3609,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3628,9 +3625,6 @@
     </xf>
     <xf numFmtId="165" fontId="19" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4020,22 +4014,22 @@
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="18" customWidth="1"/>
-    <col min="6" max="6" width="39.8984375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="39.8984375" style="16" customWidth="1"/>
     <col min="7" max="7" width="12.09765625" style="2" customWidth="1"/>
     <col min="8" max="11" width="16.19921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>618</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>619</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>620</v>
       </c>
       <c r="F1"/>
@@ -4046,12 +4040,12 @@
       <c r="K1"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>621</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="39"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="37"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
@@ -4060,16 +4054,16 @@
       <c r="K2"/>
     </row>
     <row r="3" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>454</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>455</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>456</v>
       </c>
       <c r="F3"/>
@@ -4080,16 +4074,16 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>595</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>457</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="20" t="s">
         <v>458</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>459</v>
       </c>
       <c r="F4"/>
@@ -4100,16 +4094,16 @@
       <c r="K4"/>
     </row>
     <row r="5" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>460</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>461</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>462</v>
       </c>
       <c r="F5"/>
@@ -4120,12 +4114,12 @@
       <c r="K5"/>
     </row>
     <row r="6" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>622</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="39"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
       <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
@@ -4134,16 +4128,16 @@
       <c r="K6"/>
     </row>
     <row r="7" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>464</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>465</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>466</v>
       </c>
       <c r="F7"/>
@@ -4154,16 +4148,16 @@
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>595</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>467</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>468</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>469</v>
       </c>
       <c r="F8"/>
@@ -4174,16 +4168,16 @@
       <c r="K8"/>
     </row>
     <row r="9" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>470</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>471</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>472</v>
       </c>
       <c r="F9"/>
@@ -4194,12 +4188,12 @@
       <c r="K9"/>
     </row>
     <row r="10" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="39"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
       <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
@@ -4208,16 +4202,16 @@
       <c r="K10"/>
     </row>
     <row r="11" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>477</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>478</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="20" t="s">
         <v>479</v>
       </c>
       <c r="F11"/>
@@ -4228,16 +4222,16 @@
       <c r="K11"/>
     </row>
     <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>595</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="20" t="s">
         <v>485</v>
       </c>
       <c r="F12"/>
@@ -4248,16 +4242,16 @@
       <c r="K12"/>
     </row>
     <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>827</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>828</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="D13" s="20" t="s">
         <v>829</v>
       </c>
       <c r="F13"/>
@@ -4268,12 +4262,12 @@
       <c r="K13"/>
     </row>
     <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="39"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
@@ -4282,16 +4276,16 @@
       <c r="K14"/>
     </row>
     <row r="15" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>480</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>482</v>
       </c>
       <c r="F15"/>
@@ -4302,16 +4296,16 @@
       <c r="K15"/>
     </row>
     <row r="16" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>625</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>483</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="20" t="s">
         <v>484</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>485</v>
       </c>
       <c r="F16"/>
@@ -4322,16 +4316,16 @@
       <c r="K16"/>
     </row>
     <row r="17" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>824</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="20" t="s">
         <v>825</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>826</v>
       </c>
       <c r="F17"/>
@@ -4342,12 +4336,12 @@
       <c r="K17"/>
     </row>
     <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="35" t="s">
         <v>830</v>
       </c>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="37"/>
       <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
@@ -4356,16 +4350,16 @@
       <c r="K18"/>
     </row>
     <row r="19" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>410</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>419</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>420</v>
       </c>
       <c r="F19"/>
@@ -4376,16 +4370,16 @@
       <c r="K19"/>
     </row>
     <row r="20" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>411</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>421</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>422</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>423</v>
       </c>
       <c r="F20"/>
@@ -4396,16 +4390,16 @@
       <c r="K20"/>
     </row>
     <row r="21" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>412</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>424</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>425</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>426</v>
       </c>
       <c r="F21"/>
@@ -4416,16 +4410,16 @@
       <c r="K21"/>
     </row>
     <row r="22" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>413</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>427</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="20" t="s">
         <v>428</v>
       </c>
-      <c r="D22" s="21" t="s">
+      <c r="D22" s="20" t="s">
         <v>429</v>
       </c>
       <c r="F22"/>
@@ -4436,16 +4430,16 @@
       <c r="K22"/>
     </row>
     <row r="23" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>651</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>430</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>431</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>432</v>
       </c>
       <c r="F23"/>
@@ -4456,16 +4450,16 @@
       <c r="K23"/>
     </row>
     <row r="24" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>652</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>433</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>434</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="20" t="s">
         <v>435</v>
       </c>
       <c r="F24"/>
@@ -4476,12 +4470,12 @@
       <c r="K24"/>
     </row>
     <row r="25" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="35" t="s">
         <v>649</v>
       </c>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="39"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
       <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
@@ -4490,30 +4484,30 @@
       <c r="K25"/>
     </row>
     <row r="26" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>643</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C26" s="20" t="s">
         <v>644</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="19" t="s">
         <v>654</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>631</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="20" t="s">
         <v>632</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>633</v>
       </c>
       <c r="F27"/>
@@ -4524,16 +4518,16 @@
       <c r="K27"/>
     </row>
     <row r="28" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="19" t="s">
         <v>653</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>637</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>638</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>639</v>
       </c>
       <c r="F28"/>
@@ -4544,30 +4538,30 @@
       <c r="K28"/>
     </row>
     <row r="29" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>409</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>646</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>647</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
+      <c r="A30" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>634</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>635</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>636</v>
       </c>
       <c r="F30"/>
@@ -4578,16 +4572,16 @@
       <c r="K30"/>
     </row>
     <row r="31" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
+      <c r="A31" s="19" t="s">
         <v>655</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>640</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="20" t="s">
         <v>641</v>
       </c>
-      <c r="D31" s="21" t="s">
+      <c r="D31" s="20" t="s">
         <v>642</v>
       </c>
     </row>
@@ -24740,7 +24734,7 @@
       </c>
       <c r="N21" s="2" t="str" cm="1">
         <f t="array" aca="1" ref="N21" ca="1">CELL("filename",A1)</f>
-        <v>C:\Workspace\wetlandP\model_versions\wetlandP_v2\wetlandP_v2.1\inputs\lcbp_sites\[df.lcbp.stocks.xlsx]Soil (0-5cm)</v>
+        <v>C:\Users\Adrian.Wiegman\Documents\GitHub\wetlandP_2p1_stable\wetlandP_v2.1\inputs\lcbp_sites\[df.lcbp.stocks.xlsx]Soil (0-5cm)</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
@@ -24805,18 +24799,18 @@
       <c r="E24" s="2"/>
       <c r="L24"/>
       <c r="M24"/>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="O24" s="10" t="str">
+      <c r="O24" s="9" t="str">
         <f>B26</f>
         <v>LC</v>
       </c>
-      <c r="P24" s="11" t="str">
+      <c r="P24" s="10" t="str">
         <f>B27</f>
         <v>OCD</v>
       </c>
-      <c r="Q24" s="12" t="str">
+      <c r="Q24" s="11" t="str">
         <f>B28</f>
         <v>OCSP</v>
       </c>
@@ -24837,13 +24831,13 @@
       <c r="G25" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="N25" s="15" t="str" cm="1">
+      <c r="N25" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="N25" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,LEN(CELL("filename",A1)))</f>
         <v>Soil (0-5cm)</v>
       </c>
-      <c r="O25" s="15"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="15"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
@@ -24869,19 +24863,19 @@
         <f t="shared" si="3"/>
         <v>814.04 ± 106.8</v>
       </c>
-      <c r="N26" s="6" t="str">
+      <c r="N26" s="5" t="str">
         <f>C25</f>
         <v>TM (g d.w./m2)</v>
       </c>
-      <c r="O26" s="8" t="str">
+      <c r="O26" s="7" t="str">
         <f>C26</f>
         <v>0.31 ± 0.14</v>
       </c>
-      <c r="P26" s="8" t="str">
+      <c r="P26" s="7" t="str">
         <f>C27</f>
         <v>0.38 ± 0.1</v>
       </c>
-      <c r="Q26" s="4" t="str">
+      <c r="Q26" s="2" t="str">
         <f>C28</f>
         <v>0.36 ± 0.17</v>
       </c>
@@ -24910,19 +24904,19 @@
         <f t="shared" si="6"/>
         <v>746.75 ± 83.21</v>
       </c>
-      <c r="N27" s="6" t="e">
+      <c r="N27" s="5" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="O27" s="8" t="e">
+      <c r="O27" s="7" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="P27" s="8" t="e">
+      <c r="P27" s="7" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="Q27" s="4" t="e">
+      <c r="Q27" s="2" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
@@ -24951,82 +24945,82 @@
         <f t="shared" si="6"/>
         <v>852.36 ± 205.15</v>
       </c>
-      <c r="N28" s="6" t="str">
+      <c r="N28" s="5" t="str">
         <f>D25</f>
         <v xml:space="preserve">OM (g d.w. /m2/yr) </v>
       </c>
-      <c r="O28" s="8" t="str">
+      <c r="O28" s="7" t="str">
         <f>D26</f>
         <v>4189 ± 1116</v>
       </c>
-      <c r="P28" s="8" t="str">
+      <c r="P28" s="7" t="str">
         <f>D27</f>
         <v>4093 ± 663</v>
       </c>
-      <c r="Q28" s="4" t="str">
+      <c r="Q28" s="2" t="str">
         <f>D28</f>
         <v>4244 ± 852</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N29" s="6" t="str">
+      <c r="N29" s="5" t="str">
         <f>E25</f>
         <v>TP (g P/m2/yr)</v>
       </c>
-      <c r="O29" s="8" t="str">
+      <c r="O29" s="7" t="str">
         <f>E26</f>
         <v>1147.71 ± 125.74</v>
       </c>
-      <c r="P29" s="8" t="str">
+      <c r="P29" s="7" t="str">
         <f>E27</f>
         <v>1140.44 ± 94.53</v>
       </c>
-      <c r="Q29" s="4" t="str">
+      <c r="Q29" s="2" t="str">
         <f>E28</f>
         <v>1244.61 ± 185.56</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N30" s="6" t="str">
+      <c r="N30" s="5" t="str">
         <f>F25</f>
         <v>IP (g d.w./m2/yr)</v>
       </c>
-      <c r="O30" s="8" t="str">
+      <c r="O30" s="7" t="str">
         <f>F26</f>
         <v>333.67 ± 49.49</v>
       </c>
-      <c r="P30" s="8" t="str">
+      <c r="P30" s="7" t="str">
         <f>F27</f>
         <v>393.69 ± 102.45</v>
       </c>
-      <c r="Q30" s="4" t="str">
+      <c r="Q30" s="2" t="str">
         <f>F28</f>
         <v>392.25 ± 35.48</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N31" s="6" t="str">
+      <c r="N31" s="5" t="str">
         <f>G25</f>
         <v>OP (g d.w./m2/yr)</v>
       </c>
-      <c r="O31" s="8" t="str">
+      <c r="O31" s="7" t="str">
         <f>G26</f>
         <v>814.04 ± 106.8</v>
       </c>
-      <c r="P31" s="8" t="str">
+      <c r="P31" s="7" t="str">
         <f>G27</f>
         <v>746.75 ± 83.21</v>
       </c>
-      <c r="Q31" s="4" t="str">
+      <c r="Q31" s="2" t="str">
         <f>G28</f>
         <v>852.36 ± 205.15</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="14"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25038,7 +25032,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -25053,7 +25047,7 @@
     <col min="17" max="18" width="12.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>896</v>
       </c>
@@ -25072,12 +25066,8 @@
       <c r="H1" t="s">
         <v>899</v>
       </c>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -25103,7 +25093,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>378</v>
       </c>
@@ -25129,7 +25119,7 @@
         <v>0.66860146301605405</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>378</v>
       </c>
@@ -25155,7 +25145,7 @@
         <v>0.89542409861318495</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>378</v>
       </c>
@@ -25181,7 +25171,7 @@
         <v>0.27196923766263298</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>378</v>
       </c>
@@ -25207,7 +25197,7 @@
         <v>0.165379941748107</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>378</v>
       </c>
@@ -25233,7 +25223,7 @@
         <v>0.24348987166205899</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>386</v>
       </c>
@@ -25259,7 +25249,7 @@
         <v>0.552586687871641</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>386</v>
       </c>
@@ -25285,7 +25275,7 @@
         <v>0.31033680499417499</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>386</v>
       </c>
@@ -25311,7 +25301,7 @@
         <v>0.39847666704655199</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>386</v>
       </c>
@@ -25337,7 +25327,7 @@
         <v>0.27288980626591403</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>386</v>
       </c>
@@ -25363,7 +25353,7 @@
         <v>0.145951594069649</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>392</v>
       </c>
@@ -25389,7 +25379,7 @@
         <v>0.65028674489992999</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>392</v>
       </c>
@@ -25415,7 +25405,7 @@
         <v>0.74951969385052797</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>392</v>
       </c>
@@ -25441,7 +25431,7 @@
         <v>0.61665670782586401</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>392</v>
       </c>
@@ -25619,10 +25609,6 @@
       <c r="H22" cm="1">
         <f t="array" ref="H22">_xlfn.STDEV.P(IF($A$3:$A$17=$B22,H$3:H$17))</f>
         <v>0.28338451468683867</v>
-      </c>
-      <c r="O22" s="2" t="str" cm="1">
-        <f t="array" aca="1" ref="O22" ca="1">CELL("filename",A2)</f>
-        <v>C:\Workspace\wetlandP\model_versions\wetlandP_v2\wetlandP_v2.1\inputs\lcbp_sites\[df.lcbp.stocks.xlsx]Accretion (Tiles)</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
@@ -25696,18 +25682,18 @@
       <c r="F25" s="2"/>
       <c r="M25"/>
       <c r="N25"/>
-      <c r="O25" s="10" t="s">
+      <c r="O25" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="P25" s="10" t="str">
+      <c r="P25" s="9" t="str">
         <f>B27</f>
         <v>LC</v>
       </c>
-      <c r="Q25" s="11" t="str">
+      <c r="Q25" s="10" t="str">
         <f>B28</f>
         <v>OCD</v>
       </c>
-      <c r="R25" s="12" t="str">
+      <c r="R25" s="11" t="str">
         <f>B29</f>
         <v>OCSP</v>
       </c>
@@ -25749,13 +25735,13 @@
       <c r="N26" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="O26" s="15" t="str" cm="1">
+      <c r="O26" s="14" t="str" cm="1">
         <f t="array" aca="1" ref="O26" ca="1">MID(CELL("filename",A2),FIND("]",CELL("filename",A2))+1,LEN(CELL("filename",A2)))</f>
         <v>Accretion (Tiles)</v>
       </c>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="14"/>
+      <c r="R26" s="14"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
@@ -25809,19 +25795,19 @@
         <f t="shared" si="4"/>
         <v>0.45 ± 0.28</v>
       </c>
-      <c r="O27" s="6" t="str">
+      <c r="O27" s="5" t="str">
         <f>I26</f>
         <v>TM (g d.w./m2/yr)</v>
       </c>
-      <c r="P27" s="8" t="str">
+      <c r="P27" s="7" t="str">
         <f>I27</f>
         <v>412 ± 102</v>
       </c>
-      <c r="Q27" s="8" t="str">
+      <c r="Q27" s="7" t="str">
         <f>I28</f>
         <v>469 ± 117</v>
       </c>
-      <c r="R27" s="4" t="str">
+      <c r="R27" s="2" t="str">
         <f>I29</f>
         <v>463 ± 106</v>
       </c>
@@ -25878,19 +25864,19 @@
         <f t="shared" si="4"/>
         <v>0.34 ± 0.14</v>
       </c>
-      <c r="O28" s="6" t="str">
+      <c r="O28" s="5" t="str">
         <f>J26</f>
         <v xml:space="preserve">IM (g d.w. /m2/yr) </v>
       </c>
-      <c r="P28" s="8" t="str">
+      <c r="P28" s="7" t="str">
         <f>J27</f>
         <v>43 ± 17</v>
       </c>
-      <c r="Q28" s="8" t="str">
+      <c r="Q28" s="7" t="str">
         <f>J28</f>
         <v>81 ± 68</v>
       </c>
-      <c r="R28" s="4" t="str">
+      <c r="R28" s="2" t="str">
         <f>J29</f>
         <v>94 ± 44</v>
       </c>
@@ -25947,82 +25933,82 @@
         <f t="shared" si="4"/>
         <v>0.51 ± 0.2</v>
       </c>
-      <c r="O29" s="6" t="str">
+      <c r="O29" s="5" t="str">
         <f>K26</f>
         <v xml:space="preserve">OM (g d.w. /m2/yr) </v>
       </c>
-      <c r="P29" s="8" t="str">
+      <c r="P29" s="7" t="str">
         <f>K27</f>
         <v>369 ± 92</v>
       </c>
-      <c r="Q29" s="8" t="str">
+      <c r="Q29" s="7" t="str">
         <f>K28</f>
         <v>388 ± 99</v>
       </c>
-      <c r="R29" s="4" t="str">
+      <c r="R29" s="2" t="str">
         <f>K29</f>
         <v>369 ± 82</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O30" s="6" t="str">
+      <c r="O30" s="5" t="str">
         <f>L26</f>
         <v>TP (g P/m2/yr)</v>
       </c>
-      <c r="P30" s="8" t="str">
+      <c r="P30" s="7" t="str">
         <f>L27</f>
         <v>0.62 ± 0.36</v>
       </c>
-      <c r="Q30" s="8" t="str">
+      <c r="Q30" s="7" t="str">
         <f>L28</f>
         <v>0.71 ± 0.36</v>
       </c>
-      <c r="R30" s="4" t="str">
+      <c r="R30" s="2" t="str">
         <f>L29</f>
         <v>1.11 ± 0.53</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O31" s="6" t="str">
+      <c r="O31" s="5" t="str">
         <f>M26</f>
         <v>IP (g d.w./m2/yr)</v>
       </c>
-      <c r="P31" s="8" t="str">
+      <c r="P31" s="7" t="str">
         <f>M27</f>
         <v>0.17 ± 0.09</v>
       </c>
-      <c r="Q31" s="8" t="str">
+      <c r="Q31" s="7" t="str">
         <f>M28</f>
         <v>0.37 ± 0.24</v>
       </c>
-      <c r="R31" s="4" t="str">
+      <c r="R31" s="2" t="str">
         <f>M29</f>
         <v>0.6 ± 0.34</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O32" s="6" t="str">
+      <c r="O32" s="5" t="str">
         <f>N26</f>
         <v>OP (g d.w./m2/yr)</v>
       </c>
-      <c r="P32" s="8" t="str">
+      <c r="P32" s="7" t="str">
         <f>N27</f>
         <v>0.45 ± 0.28</v>
       </c>
-      <c r="Q32" s="8" t="str">
+      <c r="Q32" s="7" t="str">
         <f>N28</f>
         <v>0.34 ± 0.14</v>
       </c>
-      <c r="R32" s="4" t="str">
+      <c r="R32" s="2" t="str">
         <f>N29</f>
         <v>0.51 ± 0.2</v>
       </c>
     </row>
     <row r="33" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O33" s="5"/>
-      <c r="P33" s="5"/>
-      <c r="Q33" s="14"/>
-      <c r="R33" s="14"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26500,18 +26486,18 @@
       <c r="F21" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="M21" s="10" t="str">
+      <c r="M21" s="9" t="str">
         <f>B23</f>
         <v>LC</v>
       </c>
-      <c r="N21" s="11" t="str">
+      <c r="N21" s="10" t="str">
         <f>B24</f>
         <v>OCD</v>
       </c>
-      <c r="O21" s="12" t="str">
+      <c r="O21" s="11" t="str">
         <f>B25</f>
         <v>OCSP</v>
       </c>
@@ -26541,13 +26527,13 @@
       <c r="J22" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="L22" s="13" t="str" cm="1">
+      <c r="L22" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="L22" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,LEN(CELL("filename",A1)))</f>
         <v>Aboveground Litter</v>
       </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -26585,19 +26571,19 @@
         <f>ROUND($F23,2)&amp;" ± "&amp;ROUND($G23,2)</f>
         <v>0.38 ± 0.23</v>
       </c>
-      <c r="L23" s="6" t="str">
+      <c r="L23" s="5" t="str">
         <f>H22</f>
         <v>M (g d.w./m2)</v>
       </c>
-      <c r="M23" s="8" t="str">
+      <c r="M23" s="7" t="str">
         <f>H23</f>
         <v>390 ± 223</v>
       </c>
-      <c r="N23" s="8" t="str">
+      <c r="N23" s="7" t="str">
         <f>H24</f>
         <v>700 ± 150</v>
       </c>
-      <c r="O23" s="4" t="str">
+      <c r="O23" s="2" t="str">
         <f>H25</f>
         <v>370 ± 163</v>
       </c>
@@ -26638,19 +26624,19 @@
         <f t="shared" ref="J24:J25" si="5">ROUND($F24,2)&amp;" ± "&amp;ROUND($G24,2)</f>
         <v>1.25 ± 0.44</v>
       </c>
-      <c r="L24" s="6" t="str">
+      <c r="L24" s="5" t="str">
         <f>I22</f>
         <v>k (mg P/kg)</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="7">
         <f>I23</f>
         <v>1130</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <f>I24</f>
         <v>1850</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="2">
         <f>I25</f>
         <v>2890</v>
       </c>
@@ -26691,19 +26677,19 @@
         <f t="shared" si="5"/>
         <v>0.89 ± 0.21</v>
       </c>
-      <c r="L25" s="7" t="str">
+      <c r="L25" s="6" t="str">
         <f>J22</f>
         <v>P (g P/m2)</v>
       </c>
-      <c r="M25" s="9" t="str">
+      <c r="M25" s="8" t="str">
         <f>J23</f>
         <v>0.38 ± 0.23</v>
       </c>
-      <c r="N25" s="9" t="str">
+      <c r="N25" s="8" t="str">
         <f>J24</f>
         <v>1.25 ± 0.44</v>
       </c>
-      <c r="O25" s="5" t="str">
+      <c r="O25" s="4" t="str">
         <f>J25</f>
         <v>0.89 ± 0.21</v>
       </c>
@@ -27183,18 +27169,18 @@
       <c r="F21" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="M21" s="10" t="str">
+      <c r="M21" s="9" t="str">
         <f>B23</f>
         <v>LC</v>
       </c>
-      <c r="N21" s="11" t="str">
+      <c r="N21" s="10" t="str">
         <f>B24</f>
         <v>OCD</v>
       </c>
-      <c r="O21" s="12" t="str">
+      <c r="O21" s="11" t="str">
         <f>B25</f>
         <v>OCSP</v>
       </c>
@@ -27224,13 +27210,13 @@
       <c r="J22" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="L22" s="13" t="str" cm="1">
+      <c r="L22" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="L22" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,LEN(CELL("filename",A1)))</f>
         <v>Aboveground Herbaceous Biomass</v>
       </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -27268,19 +27254,19 @@
         <f>ROUND($F23,2)&amp;" ± "&amp;ROUND($G23,2)</f>
         <v>0.38 ± 0.23</v>
       </c>
-      <c r="L23" s="6" t="str">
+      <c r="L23" s="5" t="str">
         <f>H22</f>
         <v>M (g d.w./m2)</v>
       </c>
-      <c r="M23" s="8" t="str">
+      <c r="M23" s="7" t="str">
         <f>H23</f>
         <v>390 ± 223</v>
       </c>
-      <c r="N23" s="8" t="str">
+      <c r="N23" s="7" t="str">
         <f>H24</f>
         <v>700 ± 266</v>
       </c>
-      <c r="O23" s="4" t="str">
+      <c r="O23" s="2" t="str">
         <f>H25</f>
         <v>370 ± 93</v>
       </c>
@@ -27321,19 +27307,19 @@
         <f t="shared" ref="J24:J25" si="4">ROUND($F24,2)&amp;" ± "&amp;ROUND($G24,2)</f>
         <v>1.25 ± 0.44</v>
       </c>
-      <c r="L24" s="6" t="str">
+      <c r="L24" s="5" t="str">
         <f>I22</f>
         <v>k (mg P/kg)</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="7">
         <f>I23</f>
         <v>1130</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <f>I24</f>
         <v>1850</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="2">
         <f>I25</f>
         <v>2890</v>
       </c>
@@ -27374,19 +27360,19 @@
         <f t="shared" si="4"/>
         <v>0.89 ± 0.21</v>
       </c>
-      <c r="L25" s="7" t="str">
+      <c r="L25" s="6" t="str">
         <f>J22</f>
         <v>P (g P/m2)</v>
       </c>
-      <c r="M25" s="9" t="str">
+      <c r="M25" s="8" t="str">
         <f>J23</f>
         <v>0.38 ± 0.23</v>
       </c>
-      <c r="N25" s="9" t="str">
+      <c r="N25" s="8" t="str">
         <f>J24</f>
         <v>1.25 ± 0.44</v>
       </c>
-      <c r="O25" s="5" t="str">
+      <c r="O25" s="4" t="str">
         <f>J25</f>
         <v>0.89 ± 0.21</v>
       </c>
@@ -27904,13 +27890,13 @@
       <c r="J22" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="L22" s="13" t="str" cm="1">
+      <c r="L22" s="12" t="str" cm="1">
         <f t="array" aca="1" ref="L22" ca="1">MID(CELL("filename",A1),FIND("]",CELL("filename",A1))+1,LEN(CELL("filename",A1)))</f>
         <v>Belowground Biomass (0-10cm)</v>
       </c>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -27943,19 +27929,19 @@
         <f>ROUND($F23,2)&amp;" ± "&amp;ROUND($G23,2)</f>
         <v>1.31 ± 0.35</v>
       </c>
-      <c r="L23" s="6" t="str">
+      <c r="L23" s="5" t="str">
         <f>H22</f>
         <v>M (g d.w./m2)</v>
       </c>
-      <c r="M23" s="8" t="str">
+      <c r="M23" s="7" t="str">
         <f>H23</f>
         <v>1130 ± 305</v>
       </c>
-      <c r="N23" s="8" t="str">
+      <c r="N23" s="7" t="str">
         <f>H24</f>
         <v>1390 ± 562</v>
       </c>
-      <c r="O23" s="4" t="str">
+      <c r="O23" s="2" t="str">
         <f>H25</f>
         <v>810 ± 346</v>
       </c>
@@ -27991,19 +27977,19 @@
         <f t="shared" ref="J24:J25" si="2">ROUND($F24,2)&amp;" ± "&amp;ROUND($G24,2)</f>
         <v>2.2 ± 0.97</v>
       </c>
-      <c r="L24" s="6" t="str">
+      <c r="L24" s="5" t="str">
         <f>I22</f>
         <v>k (mg P/kg)</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="7">
         <f>I23</f>
         <v>1160</v>
       </c>
-      <c r="N24" s="8">
+      <c r="N24" s="7">
         <f>I24</f>
         <v>1530</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="2">
         <f>I25</f>
         <v>1260</v>
       </c>
@@ -28039,19 +28025,19 @@
         <f t="shared" si="2"/>
         <v>1.03 ± 0.41</v>
       </c>
-      <c r="L25" s="7" t="str">
+      <c r="L25" s="6" t="str">
         <f>J22</f>
         <v>P (g P/m2)</v>
       </c>
-      <c r="M25" s="9" t="str">
+      <c r="M25" s="8" t="str">
         <f>J23</f>
         <v>1.31 ± 0.35</v>
       </c>
-      <c r="N25" s="9" t="str">
+      <c r="N25" s="8" t="str">
         <f>J24</f>
         <v>2.2 ± 0.97</v>
       </c>
-      <c r="O25" s="5" t="str">
+      <c r="O25" s="4" t="str">
         <f>J25</f>
         <v>1.03 ± 0.41</v>
       </c>
@@ -28065,7 +28051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -28090,684 +28076,684 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="38" t="s">
         <v>618</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="39"/>
+      <c r="D1" s="38" t="s">
         <v>619</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="40" t="s">
+      <c r="E1" s="39"/>
+      <c r="F1" s="38" t="s">
         <v>620</v>
       </c>
-      <c r="G1" s="41"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="23" t="s">
         <v>688</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="24" t="s">
         <v>657</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="23" t="s">
         <v>657</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="24" t="s">
         <v>656</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="24" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="35" t="s">
         <v>820</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>757</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>689</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>690</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>691</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="17" t="s">
         <v>692</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>693</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>758</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>695</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>696</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>697</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>698</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>699</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="18" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>759</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>701</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>702</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>703</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>704</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>705</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="18" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>760</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>707</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>708</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>709</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="17" t="s">
         <v>710</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>711</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>712</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="17" t="s">
         <v>761</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="18" t="s">
         <v>713</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>714</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="17" t="s">
         <v>716</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>717</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="18" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="35" t="s">
         <v>821</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="37"/>
     </row>
     <row r="10" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="17" t="s">
         <v>755</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="18" t="s">
         <v>719</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="C10" s="18" t="s">
         <v>720</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="18" t="s">
         <v>721</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="17" t="s">
         <v>722</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="18" t="s">
         <v>723</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="18" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="17" t="s">
         <v>770</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="18" t="s">
         <v>725</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>726</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="18" t="s">
         <v>727</v>
       </c>
-      <c r="E11" s="18" t="s">
+      <c r="E11" s="17" t="s">
         <v>728</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>729</v>
       </c>
-      <c r="G11" s="19" t="s">
+      <c r="G11" s="18" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>756</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="18">
         <v>107</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="18">
         <v>122</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="18">
         <v>103</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="17">
         <v>110</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="18">
         <v>106</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="18">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="17" t="s">
         <v>769</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="18" t="s">
         <v>731</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="18" t="s">
         <v>733</v>
       </c>
-      <c r="E13" s="18" t="s">
+      <c r="E13" s="17" t="s">
         <v>734</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>735</v>
       </c>
-      <c r="G13" s="19" t="s">
+      <c r="G13" s="18" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="17" t="s">
         <v>767</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>737</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="18" t="s">
         <v>738</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="18" t="s">
         <v>739</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="17" t="s">
         <v>740</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="18" t="s">
         <v>741</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="G14" s="18" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="17" t="s">
         <v>768</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>104</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="18">
         <v>88</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="18">
         <v>93</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="17">
         <v>94</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="18">
         <v>95</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="18">
         <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>755</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="18" t="s">
         <v>743</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="18" t="s">
         <v>744</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>745</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="17" t="s">
         <v>746</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="18" t="s">
         <v>747</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="G16" s="18" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="17" t="s">
         <v>771</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="18" t="s">
         <v>749</v>
       </c>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="18" t="s">
         <v>750</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="18" t="s">
         <v>751</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="17" t="s">
         <v>752</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>753</v>
       </c>
-      <c r="G17" s="19" t="s">
+      <c r="G17" s="18" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="17" t="s">
         <v>756</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="18">
         <v>105</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="18">
         <v>99</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="18">
         <v>96</v>
       </c>
-      <c r="E18" s="18">
+      <c r="E18" s="17">
         <v>98</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="18">
         <v>98</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="18">
         <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="35" t="s">
         <v>822</v>
       </c>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="39"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>762</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>660</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>661</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>662</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="19" t="s">
         <v>663</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>664</v>
       </c>
-      <c r="G20" s="21" t="s">
+      <c r="G20" s="20" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>763</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>666</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="20" t="s">
         <v>667</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D21" s="20" t="s">
         <v>668</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="19" t="s">
         <v>669</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F21" s="20" t="s">
         <v>670</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G21" s="20" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>764</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="18" t="s">
         <v>672</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C22" s="18" t="s">
         <v>673</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="E22" s="18" t="s">
+      <c r="E22" s="17" t="s">
         <v>674</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="18" t="s">
         <v>675</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="G22" s="18" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>765</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>677</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="20" t="s">
         <v>678</v>
       </c>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="20" t="s">
         <v>679</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="19" t="s">
         <v>680</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="20" t="s">
         <v>681</v>
       </c>
-      <c r="G23" s="21" t="s">
+      <c r="G23" s="20" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>766</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>682</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="20" t="s">
         <v>683</v>
       </c>
-      <c r="D24" s="21" t="s">
+      <c r="D24" s="20" t="s">
         <v>684</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="19" t="s">
         <v>685</v>
       </c>
-      <c r="F24" s="21" t="s">
+      <c r="F24" s="20" t="s">
         <v>686</v>
       </c>
-      <c r="G24" s="21" t="s">
+      <c r="G24" s="20" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
+      <c r="A25" s="19" t="s">
         <v>777</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>694</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>772</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>773</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>775</v>
       </c>
-      <c r="G25" s="21" t="s">
+      <c r="G25" s="20" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="35" t="s">
         <v>823</v>
       </c>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="38"/>
-      <c r="F26" s="38"/>
-      <c r="G26" s="39"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="17" t="s">
         <v>807</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="18" t="s">
         <v>814</v>
       </c>
-      <c r="C27" s="19" t="s">
+      <c r="C27" s="18" t="s">
         <v>815</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="18" t="s">
         <v>816</v>
       </c>
-      <c r="E27" s="18" t="s">
+      <c r="E27" s="17" t="s">
         <v>817</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="18" t="s">
         <v>818</v>
       </c>
-      <c r="G27" s="19" t="s">
+      <c r="G27" s="18" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="17" t="s">
         <v>813</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="18" t="s">
         <v>778</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="18" t="s">
         <v>779</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="18" t="s">
         <v>780</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="18" t="s">
         <v>782</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="G28" s="18" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="17" t="s">
         <v>812</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="18" t="s">
         <v>784</v>
       </c>
-      <c r="C29" s="19" t="s">
+      <c r="C29" s="18" t="s">
         <v>785</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="18" t="s">
         <v>786</v>
       </c>
-      <c r="E29" s="18" t="s">
+      <c r="E29" s="17" t="s">
         <v>787</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="18" t="s">
         <v>788</v>
       </c>
-      <c r="G29" s="19" t="s">
+      <c r="G29" s="18" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="17" t="s">
         <v>811</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="18" t="s">
         <v>790</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>791</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="18" t="s">
         <v>792</v>
       </c>
-      <c r="E30" s="18" t="s">
+      <c r="E30" s="17" t="s">
         <v>793</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="18" t="s">
         <v>794</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="G30" s="18" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="17" t="s">
         <v>810</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="18" t="s">
         <v>796</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="C31" s="18" t="s">
         <v>797</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="18" t="s">
         <v>798</v>
       </c>
-      <c r="E31" s="18" t="s">
+      <c r="E31" s="17" t="s">
         <v>799</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="18" t="s">
         <v>800</v>
       </c>
-      <c r="G31" s="19" t="s">
+      <c r="G31" s="18" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="17" t="s">
         <v>809</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="18" t="s">
         <v>802</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="18" t="s">
         <v>803</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="18" t="s">
         <v>804</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="17" t="s">
         <v>805</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="18" t="s">
         <v>806</v>
       </c>
-      <c r="G32" s="19"/>
+      <c r="G32" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -28793,578 +28779,578 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.59765625" style="17" customWidth="1"/>
+    <col min="1" max="1" width="38.59765625" style="16" customWidth="1"/>
     <col min="2" max="2" width="12.09765625" style="2" customWidth="1"/>
     <col min="3" max="6" width="16.19921875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="37"/>
     </row>
     <row r="2" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B2" s="23">
+      <c r="B2" s="22">
         <v>43833</v>
       </c>
-      <c r="C2" s="23">
+      <c r="C2" s="22">
         <v>43833</v>
       </c>
-      <c r="D2" s="23">
+      <c r="D2" s="22">
         <v>43833</v>
       </c>
-      <c r="E2" s="23">
+      <c r="E2" s="22">
         <v>43833</v>
       </c>
-      <c r="F2" s="23">
+      <c r="F2" s="22">
         <v>43833</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="B3" s="23">
+      <c r="B3" s="22">
         <v>43833</v>
       </c>
-      <c r="C3" s="23">
+      <c r="C3" s="22">
         <v>43907</v>
       </c>
-      <c r="D3" s="23">
+      <c r="D3" s="22">
         <v>43952</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="22">
         <v>44027</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <v>44130</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>0</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>74</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>119</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="20">
         <v>194</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="20">
         <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>575</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="20" t="s">
         <v>576</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>577</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="20" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="C6" s="21" t="s">
+      <c r="B6" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>600</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>601</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="C7" s="21" t="s">
+      <c r="B7" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="20" t="s">
         <v>602</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>603</v>
       </c>
-      <c r="F7" s="21" t="s">
+      <c r="F7" s="20" t="s">
         <v>604</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="20" t="s">
         <v>583</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>584</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>587</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="20" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>589</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E10" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="20" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="35" t="s">
         <v>629</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="39"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="37"/>
     </row>
     <row r="12" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>43779</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <v>43779</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <v>43779</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <v>43779</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <v>43779</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>43779</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <v>43907</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <v>43952</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <v>44027</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="22">
         <v>44130</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>0</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>128</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="20">
         <v>173</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="20">
         <v>248</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="20">
         <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="20" t="s">
         <v>526</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="D15" s="20" t="s">
         <v>527</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>528</v>
       </c>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="20" t="s">
         <v>606</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>607</v>
       </c>
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="20" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>605</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="20" t="s">
         <v>609</v>
       </c>
-      <c r="E17" s="21" t="s">
+      <c r="E17" s="20" t="s">
         <v>610</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="20" t="s">
         <v>611</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="E18" s="21" t="s">
+      <c r="E18" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="20" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>537</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="20" t="s">
         <v>539</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>540</v>
       </c>
-      <c r="F19" s="21" t="s">
+      <c r="F19" s="20" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="E20" s="21" t="s">
+      <c r="E20" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="20" t="s">
         <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="35" t="s">
         <v>630</v>
       </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="39"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="37"/>
     </row>
     <row r="22" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="21" t="s">
         <v>507</v>
       </c>
-      <c r="B22" s="23">
+      <c r="B22" s="22">
         <v>43779</v>
       </c>
-      <c r="C22" s="23">
+      <c r="C22" s="22">
         <v>43779</v>
       </c>
-      <c r="D22" s="23">
+      <c r="D22" s="22">
         <v>43779</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="22">
         <v>43779</v>
       </c>
-      <c r="F22" s="23">
+      <c r="F22" s="22">
         <v>43779</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="21" t="s">
         <v>514</v>
       </c>
-      <c r="B23" s="23">
+      <c r="B23" s="22">
         <v>43779</v>
       </c>
-      <c r="C23" s="23">
+      <c r="C23" s="22">
         <v>43907</v>
       </c>
-      <c r="D23" s="23">
+      <c r="D23" s="22">
         <v>43952</v>
       </c>
-      <c r="E23" s="23">
+      <c r="E23" s="22">
         <v>44027</v>
       </c>
-      <c r="F23" s="23">
+      <c r="F23" s="22">
         <v>44133</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>516</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="20">
         <v>0</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>128</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D24" s="20">
         <v>173</v>
       </c>
-      <c r="E24" s="21">
+      <c r="E24" s="20">
         <v>248</v>
       </c>
-      <c r="F24" s="21">
+      <c r="F24" s="20">
         <v>354</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="21" t="s">
         <v>518</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>525</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="20" t="s">
         <v>553</v>
       </c>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="20" t="s">
         <v>554</v>
       </c>
-      <c r="E25" s="21" t="s">
+      <c r="E25" s="20" t="s">
         <v>555</v>
       </c>
-      <c r="F25" s="21" t="s">
+      <c r="F25" s="20" t="s">
         <v>556</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="21" t="s">
         <v>627</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="C26" s="21" t="s">
+      <c r="B26" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C26" s="20" t="s">
         <v>612</v>
       </c>
-      <c r="D26" s="21" t="s">
+      <c r="D26" s="20" t="s">
         <v>613</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="20" t="s">
         <v>614</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="20" t="s">
         <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="21" t="s">
         <v>628</v>
       </c>
-      <c r="B27" s="21" t="s">
-        <v>379</v>
-      </c>
-      <c r="C27" s="21" t="s">
+      <c r="B27" s="20" t="s">
+        <v>379</v>
+      </c>
+      <c r="C27" s="20" t="s">
         <v>612</v>
       </c>
-      <c r="D27" s="21" t="s">
+      <c r="D27" s="20" t="s">
         <v>616</v>
       </c>
-      <c r="E27" s="21" t="s">
+      <c r="E27" s="20" t="s">
         <v>611</v>
       </c>
-      <c r="F27" s="21" t="s">
+      <c r="F27" s="20" t="s">
         <v>617</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>557</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>558</v>
       </c>
-      <c r="D28" s="21" t="s">
+      <c r="D28" s="20" t="s">
         <v>559</v>
       </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="20" t="s">
         <v>560</v>
       </c>
-      <c r="F28" s="21" t="s">
+      <c r="F28" s="20" t="s">
         <v>561</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="21" t="s">
         <v>595</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>562</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="20" t="s">
         <v>563</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="20" t="s">
         <v>564</v>
       </c>
-      <c r="E29" s="21" t="s">
+      <c r="E29" s="20" t="s">
         <v>565</v>
       </c>
-      <c r="F29" s="21" t="s">
+      <c r="F29" s="20" t="s">
         <v>566</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F30" s="20" t="s">
         <v>572</v>
       </c>
     </row>
@@ -29391,598 +29377,598 @@
   <cols>
     <col min="1" max="3" width="8.796875" style="2"/>
     <col min="4" max="5" width="4.19921875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="8.796875" style="26"/>
+    <col min="6" max="6" width="8.796875" style="25"/>
     <col min="7" max="7" width="11.296875" style="2" customWidth="1"/>
     <col min="8" max="9" width="8.796875" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>850</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>837</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>838</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>839</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>840</v>
       </c>
-      <c r="F1" s="27" t="s">
+      <c r="F1" s="26" t="s">
         <v>831</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>832</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>833</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>851</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>11</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>11</v>
       </c>
-      <c r="F3" s="27">
+      <c r="F3" s="26">
         <v>4.7996183002656396</v>
       </c>
-      <c r="G3" s="28">
+      <c r="G3" s="27">
         <v>1.15E-4</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <v>1.932E-2</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="10">
         <v>11</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="10">
         <v>11</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <v>3.77543771796344</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="10">
         <v>1E-3</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="10">
         <v>0.16800000000000001</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>881</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <v>11</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="10">
         <v>11</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="26">
         <v>-4.1734087748571298</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="10">
         <v>1E-3</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <v>0.16800000000000001</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="I5" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <v>11</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="10">
         <v>11</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="26">
         <v>3.51712747322139</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="10">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>0.84</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>11</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>11</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="26">
         <v>2.33491781350439</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="10">
         <v>0.05</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>1</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="40" t="s">
         <v>852</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>881</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="10">
         <v>11</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="10">
         <v>11</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="26">
         <v>-4.2224958044621799</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="10">
         <v>1E-3</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>0.16800000000000001</v>
       </c>
-      <c r="I9" s="11" t="s">
+      <c r="I9" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>11</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="10">
         <v>11</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="26">
         <v>3.5246520054162298</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>0.504</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>808</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="10">
         <v>11</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="10">
         <v>11</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="26">
         <v>-3.2500519298848101</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>0.67200000000000004</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <v>11</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>11</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="26">
         <v>3.31628238010319</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="10">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>1</v>
       </c>
-      <c r="I12" s="11" t="s">
+      <c r="I12" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>882</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>11</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>11</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="26">
         <v>-2.9765866864123098</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>1</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="I13" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>880</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <v>11</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>11</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="26">
         <v>-2.9709724871777201</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="10">
         <v>8.9999999999999993E-3</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>1</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="I14" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <v>11</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="10">
         <v>11</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="26">
         <v>2.5042911685233098</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="10">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>1</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>879</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <v>11</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="10">
         <v>11</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="26">
         <v>-2.1547440630975099</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="10">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>1</v>
       </c>
-      <c r="I16" s="11" t="s">
+      <c r="I16" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="40" t="s">
         <v>853</v>
       </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="40"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>881</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>11</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>11</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="26">
         <v>-5.3360937985398298</v>
       </c>
-      <c r="G18" s="28">
+      <c r="G18" s="27">
         <v>1.6699999999999999E-4</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>1.35269999999999E-2</v>
       </c>
-      <c r="I18" s="11" t="s">
+      <c r="I18" s="10" t="s">
         <v>835</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>766</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="10">
         <v>11</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="10">
         <v>11</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="26">
         <v>4.0027248550512597</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="27">
         <v>9.7199999999999999E-4</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="10">
         <v>7.8731999999999996E-2</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="I19" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>764</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="10">
         <v>11</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="10">
         <v>11</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="26">
         <v>3.4883515747950802</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="10">
         <v>0.32400000000000001</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="10" t="s">
         <v>763</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="10">
         <v>11</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="10">
         <v>11</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="26">
         <v>3.0185642635589298</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="10">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="10">
         <v>0.64800000000000002</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="10" t="s">
         <v>836</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>878</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>386</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="10">
         <v>11</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="10">
         <v>11</v>
       </c>
-      <c r="F22" s="27">
+      <c r="F22" s="26">
         <v>2.56282128708173</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="10">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="10">
         <v>1</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="10" t="s">
         <v>836</v>
       </c>
     </row>
@@ -30009,399 +29995,399 @@
     <col min="1" max="1" width="32" style="2" customWidth="1"/>
     <col min="2" max="2" width="7.19921875" style="2" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.796875" style="31"/>
-    <col min="5" max="5" width="8.796875" style="26"/>
+    <col min="4" max="4" width="8.796875" style="30"/>
+    <col min="5" max="5" width="8.796875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>850</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>884</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>831</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="33" t="s">
         <v>832</v>
       </c>
-      <c r="E1" s="32" t="s">
+      <c r="E1" s="31" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="35" t="s">
         <v>894</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="39"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
     </row>
     <row r="3" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="B3" s="21">
+      <c r="B3" s="20">
         <v>0.94</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="20">
         <v>36</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="34">
         <v>0</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>0.88360000000000005</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>891</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>-0.9</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="20">
         <v>1064</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="34">
         <v>0</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>0.81</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B5" s="20">
         <v>0.83</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="20">
         <v>94</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="34">
         <v>1.5799999999999999E-4</v>
       </c>
-      <c r="E5" s="33">
+      <c r="E5" s="32">
         <v>0.68889999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>886</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>0.78</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="20">
         <v>124</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="34">
         <v>9.8799999999999995E-4</v>
       </c>
-      <c r="E6" s="33">
+      <c r="E6" s="32">
         <v>0.60840000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="B7" s="21">
+      <c r="B7" s="20">
         <v>0.76</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="20">
         <v>132</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="34">
         <v>1.39E-3</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>0.5776</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>893</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>-0.75</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="20">
         <v>980</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="34">
         <v>1.91E-3</v>
       </c>
-      <c r="E8" s="33">
+      <c r="E8" s="32">
         <v>0.5625</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="B9" s="21">
+      <c r="B9" s="20">
         <v>-0.72</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="20">
         <v>964</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="34">
         <v>3.3400000000000001E-3</v>
       </c>
-      <c r="E9" s="33">
+      <c r="E9" s="32">
         <v>0.51839999999999997</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>812</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="20">
         <v>-0.72</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>962</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="34">
         <v>3.5699999999999998E-3</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="32">
         <v>0.51839999999999997</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>892</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="20">
         <v>-0.71</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="20">
         <v>956</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="34">
         <v>4.3200000000000001E-3</v>
       </c>
-      <c r="E11" s="33">
+      <c r="E11" s="32">
         <v>0.50409999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="35" t="s">
         <v>895</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="37"/>
     </row>
     <row r="13" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="20">
         <v>0.94</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="20">
         <v>36</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="34">
         <v>0</v>
       </c>
-      <c r="E13" s="33">
+      <c r="E13" s="32">
         <v>0.88360000000000005</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>891</v>
       </c>
-      <c r="B14" s="21">
+      <c r="B14" s="20">
         <v>-0.88</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="20">
         <v>1052</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="34">
         <v>0</v>
       </c>
-      <c r="E14" s="33">
+      <c r="E14" s="32">
         <v>0.77439999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>887</v>
       </c>
-      <c r="B15" s="21">
+      <c r="B15" s="20">
         <v>0.81</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="20">
         <v>104</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="34">
         <v>3.4000000000000002E-4</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="32">
         <v>0.65610000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>886</v>
       </c>
-      <c r="B16" s="21">
+      <c r="B16" s="20">
         <v>0.81</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="20">
         <v>106</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="34">
         <v>3.86E-4</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <v>0.65610000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>892</v>
       </c>
-      <c r="B17" s="21">
+      <c r="B17" s="20">
         <v>-0.79</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="20">
         <v>1004</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="34">
         <v>6.7400000000000001E-4</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <v>0.62409999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="19" t="s">
         <v>889</v>
       </c>
-      <c r="B18" s="21">
+      <c r="B18" s="20">
         <v>-0.79</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="20">
         <v>1000</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="34">
         <v>8.2100000000000001E-4</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <v>0.62409999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="19" t="s">
         <v>890</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="20">
         <v>-0.79</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>1000</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="34">
         <v>8.2100000000000001E-4</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="32">
         <v>0.62409999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="B20" s="21">
+      <c r="B20" s="20">
         <v>0.77</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>130</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="34">
         <v>1.2800000000000001E-3</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="32">
         <v>0.59289999999999998</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="19" t="s">
         <v>811</v>
       </c>
-      <c r="B21" s="21">
+      <c r="B21" s="20">
         <v>-0.77</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="20">
         <v>990</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="34">
         <v>1.2800000000000001E-3</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="32">
         <v>0.59289999999999998</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="19" t="s">
         <v>888</v>
       </c>
-      <c r="B22" s="21">
+      <c r="B22" s="20">
         <v>0.76</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="20">
         <v>136</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="34">
         <v>1.64E-3</v>
       </c>
-      <c r="E22" s="33">
+      <c r="E22" s="32">
         <v>0.5776</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="19" t="s">
         <v>810</v>
       </c>
-      <c r="B23" s="21">
+      <c r="B23" s="20">
         <v>-0.75</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="20">
         <v>982</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="34">
         <v>1.7700000000000001E-3</v>
       </c>
-      <c r="E23" s="33">
+      <c r="E23" s="32">
         <v>0.5625</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="19" t="s">
         <v>812</v>
       </c>
-      <c r="B24" s="21">
+      <c r="B24" s="20">
         <v>-0.73</v>
       </c>
-      <c r="C24" s="21">
+      <c r="C24" s="20">
         <v>968</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="34">
         <v>2.9299999999999999E-3</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="32">
         <v>0.53290000000000004</v>
       </c>
     </row>
@@ -30427,7 +30413,7 @@
   <cols>
     <col min="2" max="3" width="25.69921875" customWidth="1"/>
     <col min="4" max="5" width="4.8984375" customWidth="1"/>
-    <col min="7" max="7" width="8.796875" style="30"/>
+    <col min="7" max="7" width="8.796875" style="29"/>
     <col min="8" max="8" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -30450,7 +30436,7 @@
       <c r="F1" t="s">
         <v>831</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>832</v>
       </c>
       <c r="H1" t="s">
@@ -30461,17 +30447,17 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="41" t="s">
         <v>862</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -30492,7 +30478,7 @@
       <c r="F3">
         <v>9590.5</v>
       </c>
-      <c r="G3" s="30">
+      <c r="G3" s="29">
         <v>1.8E-12</v>
       </c>
       <c r="H3" s="1">
@@ -30523,7 +30509,7 @@
       <c r="F4">
         <v>6429.5</v>
       </c>
-      <c r="G4" s="30">
+      <c r="G4" s="29">
         <v>6.8799999999999998E-12</v>
       </c>
       <c r="H4" s="1">
@@ -30554,7 +30540,7 @@
       <c r="F5">
         <v>1681.5</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="29">
         <v>3.9599999999999998E-11</v>
       </c>
       <c r="H5" s="1">
@@ -30585,7 +30571,7 @@
       <c r="F6">
         <v>9913.5</v>
       </c>
-      <c r="G6" s="30">
+      <c r="G6" s="29">
         <v>8.5099999999999998E-9</v>
       </c>
       <c r="H6" s="1">
@@ -30616,7 +30602,7 @@
       <c r="F7">
         <v>4903.5</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="29">
         <v>3.1E-7</v>
       </c>
       <c r="H7" s="1">
@@ -30647,7 +30633,7 @@
       <c r="F8">
         <v>9550</v>
       </c>
-      <c r="G8" s="30">
+      <c r="G8" s="29">
         <v>3.1600000000000002E-7</v>
       </c>
       <c r="H8" s="1">
@@ -30660,17 +30646,17 @@
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="41" t="s">
         <v>876</v>
       </c>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -30691,7 +30677,7 @@
       <c r="F10">
         <v>6697.5</v>
       </c>
-      <c r="G10" s="30">
+      <c r="G10" s="29">
         <v>1.8699999999999999E-12</v>
       </c>
       <c r="H10" s="1">
@@ -30720,7 +30706,7 @@
       <c r="F11">
         <v>5486</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <v>3.09E-12</v>
       </c>
       <c r="H11" s="1">
@@ -30749,7 +30735,7 @@
       <c r="F12">
         <v>2686</v>
       </c>
-      <c r="G12" s="30">
+      <c r="G12" s="29">
         <v>2.7700000000000003E-10</v>
       </c>
       <c r="H12" s="1">
@@ -30778,7 +30764,7 @@
       <c r="F13">
         <v>3093</v>
       </c>
-      <c r="G13" s="30">
+      <c r="G13" s="29">
         <v>9.5499999999999995E-9</v>
       </c>
       <c r="H13" s="1">
@@ -30807,7 +30793,7 @@
       <c r="F14">
         <v>663.5</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="29">
         <v>1.79E-7</v>
       </c>
       <c r="H14" s="1">
@@ -30836,7 +30822,7 @@
       <c r="F15">
         <v>3936</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="29">
         <v>2.57E-6</v>
       </c>
       <c r="H15" s="1">
@@ -30865,7 +30851,7 @@
       <c r="F16">
         <v>24</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="29">
         <v>7.96E-6</v>
       </c>
       <c r="H16" s="1">
@@ -30894,7 +30880,7 @@
       <c r="F17">
         <v>656</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="29">
         <v>2.55E-5</v>
       </c>
       <c r="H17">
@@ -30923,7 +30909,7 @@
       <c r="F18">
         <v>3783</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="29">
         <v>3.3200000000000001E-5</v>
       </c>
       <c r="H18">
@@ -30952,7 +30938,7 @@
       <c r="F19">
         <v>223</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="29">
         <v>4.2299999999999998E-5</v>
       </c>
       <c r="H19">
@@ -30981,7 +30967,7 @@
       <c r="F20">
         <v>1429</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="29">
         <v>6.9400000000000006E-5</v>
       </c>
       <c r="H20">
@@ -31010,7 +30996,7 @@
       <c r="F21">
         <v>16753.5</v>
       </c>
-      <c r="G21" s="30">
+      <c r="G21" s="29">
         <v>7.5799999999999999E-5</v>
       </c>
       <c r="H21">
@@ -31039,7 +31025,7 @@
       <c r="F22">
         <v>100</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="29">
         <v>1.16E-4</v>
       </c>
       <c r="H22">
@@ -31068,7 +31054,7 @@
       <c r="F23">
         <v>578</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="29">
         <v>2.6499999999999999E-4</v>
       </c>
       <c r="H23">
@@ -31097,7 +31083,7 @@
       <c r="F24">
         <v>4396</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="29">
         <v>2.92E-4</v>
       </c>
       <c r="H24">
@@ -31126,7 +31112,7 @@
       <c r="F25">
         <v>2304.5</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="29">
         <v>3.4600000000000001E-4</v>
       </c>
       <c r="H25">
@@ -31137,25 +31123,25 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="41" t="s">
         <v>875</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="43"/>
-      <c r="D26" s="43"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="28"/>
+      <c r="O26" s="28"/>
+      <c r="P26" s="28"/>
+      <c r="Q26" s="28"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -31176,7 +31162,7 @@
       <c r="F27">
         <v>1119</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="29">
         <v>1.26E-8</v>
       </c>
       <c r="H27" s="1">
@@ -31207,7 +31193,7 @@
       <c r="F28">
         <v>263</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="29">
         <v>8.3999999999999998E-8</v>
       </c>
       <c r="H28" s="1">
@@ -31238,7 +31224,7 @@
       <c r="F29">
         <v>2180.5</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="29">
         <v>1.6299999999999999E-7</v>
       </c>
       <c r="H29" s="1">
@@ -31269,7 +31255,7 @@
       <c r="F30">
         <v>2717</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="29">
         <v>1.6500000000000001E-7</v>
       </c>
       <c r="H30" s="1">
@@ -31300,7 +31286,7 @@
       <c r="F31">
         <v>13322.5</v>
       </c>
-      <c r="G31" s="30">
+      <c r="G31" s="29">
         <v>9.6599999999999994E-7</v>
       </c>
       <c r="H31" s="1">
@@ -31331,7 +31317,7 @@
       <c r="F32">
         <v>21154</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="29">
         <v>1.5E-6</v>
       </c>
       <c r="H32" s="1">
@@ -31362,7 +31348,7 @@
       <c r="F33">
         <v>470.5</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="29">
         <v>4.3800000000000004E-6</v>
       </c>
       <c r="H33" s="1">
@@ -31393,7 +31379,7 @@
       <c r="F34">
         <v>4141</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="29">
         <v>5.0900000000000004E-6</v>
       </c>
       <c r="H34" s="1">
@@ -31424,7 +31410,7 @@
       <c r="F35">
         <v>2499.5</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="29">
         <v>6.1099999999999999E-6</v>
       </c>
       <c r="H35" s="1">
@@ -31455,7 +31441,7 @@
       <c r="F36">
         <v>845</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="29">
         <v>6.5300000000000002E-6</v>
       </c>
       <c r="H36" s="1">
@@ -31486,7 +31472,7 @@
       <c r="F37">
         <v>2447</v>
       </c>
-      <c r="G37" s="30">
+      <c r="G37" s="29">
         <v>2.0800000000000001E-5</v>
       </c>
       <c r="H37" s="1">
@@ -31517,7 +31503,7 @@
       <c r="F38">
         <v>2062.5</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="29">
         <v>2.4199999999999999E-5</v>
       </c>
       <c r="H38">
@@ -31547,7 +31533,7 @@
       <c r="F39">
         <v>12320</v>
       </c>
-      <c r="G39" s="30">
+      <c r="G39" s="29">
         <v>4.4199999999999997E-5</v>
       </c>
       <c r="H39">
@@ -31577,7 +31563,7 @@
       <c r="F40">
         <v>2498.5</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="29">
         <v>1.2300000000000001E-4</v>
       </c>
       <c r="H40">
@@ -31607,7 +31593,7 @@
       <c r="F41">
         <v>1161.5</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="29">
         <v>1.3899999999999999E-4</v>
       </c>
       <c r="H41">
@@ -31637,7 +31623,7 @@
       <c r="F42">
         <v>89</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="29">
         <v>2.4600000000000002E-4</v>
       </c>
       <c r="H42">
@@ -31649,17 +31635,17 @@
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="41" t="s">
         <v>863</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="43"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="43"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="43"/>
-      <c r="H43" s="43"/>
-      <c r="I43" s="43"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -31680,7 +31666,7 @@
       <c r="F44">
         <v>9904.5</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G44" s="29">
         <v>8.99E-10</v>
       </c>
       <c r="H44" s="1">
@@ -31709,7 +31695,7 @@
       <c r="F45">
         <v>1128.5</v>
       </c>
-      <c r="G45" s="30">
+      <c r="G45" s="29">
         <v>3.7799999999999998E-9</v>
       </c>
       <c r="H45" s="1">
@@ -31738,7 +31724,7 @@
       <c r="F46">
         <v>9317</v>
       </c>
-      <c r="G46" s="30">
+      <c r="G46" s="29">
         <v>1.14E-8</v>
       </c>
       <c r="H46" s="1">
@@ -31767,7 +31753,7 @@
       <c r="F47">
         <v>1781</v>
       </c>
-      <c r="G47" s="30">
+      <c r="G47" s="29">
         <v>1.2499999999999999E-8</v>
       </c>
       <c r="H47" s="1">
@@ -31796,7 +31782,7 @@
       <c r="F48">
         <v>5268</v>
       </c>
-      <c r="G48" s="30">
+      <c r="G48" s="29">
         <v>2.1299999999999999E-8</v>
       </c>
       <c r="H48" s="1">
@@ -31825,7 +31811,7 @@
       <c r="F49">
         <v>369</v>
       </c>
-      <c r="G49" s="30">
+      <c r="G49" s="29">
         <v>6.1999999999999999E-8</v>
       </c>
       <c r="H49" s="1">
@@ -31854,7 +31840,7 @@
       <c r="F50">
         <v>609.5</v>
       </c>
-      <c r="G50" s="30">
+      <c r="G50" s="29">
         <v>2.1400000000000001E-7</v>
       </c>
       <c r="H50" s="1">
@@ -31883,7 +31869,7 @@
       <c r="F51">
         <v>1993</v>
       </c>
-      <c r="G51" s="30">
+      <c r="G51" s="29">
         <v>6.7599999999999997E-7</v>
       </c>
       <c r="H51" s="1">
@@ -31912,7 +31898,7 @@
       <c r="F52">
         <v>780</v>
       </c>
-      <c r="G52" s="30">
+      <c r="G52" s="29">
         <v>5.3700000000000003E-6</v>
       </c>
       <c r="H52" s="1">
@@ -31941,7 +31927,7 @@
       <c r="F53">
         <v>2186.5</v>
       </c>
-      <c r="G53" s="30">
+      <c r="G53" s="29">
         <v>1.03E-5</v>
       </c>
       <c r="H53">
@@ -31970,7 +31956,7 @@
       <c r="F54">
         <v>1043</v>
       </c>
-      <c r="G54" s="30">
+      <c r="G54" s="29">
         <v>1.31E-5</v>
       </c>
       <c r="H54">
@@ -31999,7 +31985,7 @@
       <c r="F55">
         <v>162</v>
       </c>
-      <c r="G55" s="30">
+      <c r="G55" s="29">
         <v>3.9100000000000002E-5</v>
       </c>
       <c r="H55">
@@ -32028,7 +32014,7 @@
       <c r="F56">
         <v>0</v>
       </c>
-      <c r="G56" s="30">
+      <c r="G56" s="29">
         <v>5.1600000000000001E-5</v>
       </c>
       <c r="H56">
@@ -32057,7 +32043,7 @@
       <c r="F57">
         <v>8</v>
       </c>
-      <c r="G57" s="30">
+      <c r="G57" s="29">
         <v>6.5599999999999995E-5</v>
       </c>
       <c r="H57">
@@ -32086,7 +32072,7 @@
       <c r="F58">
         <v>249</v>
       </c>
-      <c r="G58" s="30">
+      <c r="G58" s="29">
         <v>7.3200000000000004E-5</v>
       </c>
       <c r="H58">
@@ -32115,7 +32101,7 @@
       <c r="F59">
         <v>316.5</v>
       </c>
-      <c r="G59" s="30">
+      <c r="G59" s="29">
         <v>8.9599999999999996E-5</v>
       </c>
       <c r="H59">
@@ -32144,7 +32130,7 @@
       <c r="F60">
         <v>1145.5</v>
       </c>
-      <c r="G60" s="30">
+      <c r="G60" s="29">
         <v>1.0399999999999999E-4</v>
       </c>
       <c r="H60">
@@ -32173,7 +32159,7 @@
       <c r="F61">
         <v>130.5</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G61" s="29">
         <v>1.7899999999999999E-4</v>
       </c>
       <c r="H61">
@@ -32202,7 +32188,7 @@
       <c r="F62">
         <v>1417</v>
       </c>
-      <c r="G62" s="30">
+      <c r="G62" s="29">
         <v>1.8900000000000001E-4</v>
       </c>
       <c r="H62">
@@ -32231,7 +32217,7 @@
       <c r="F63">
         <v>246</v>
       </c>
-      <c r="G63" s="30">
+      <c r="G63" s="29">
         <v>1.9599999999999999E-4</v>
       </c>
       <c r="H63">
@@ -32260,7 +32246,7 @@
       <c r="F64">
         <v>7</v>
       </c>
-      <c r="G64" s="30">
+      <c r="G64" s="29">
         <v>2.8299999999999999E-4</v>
       </c>
       <c r="H64">
@@ -32633,7 +32619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -33427,14 +33413,14 @@
         <f t="shared" si="0"/>
         <v>OCSP</v>
       </c>
-      <c r="AZ1" s="44" t="s">
+      <c r="AZ1" s="42" t="s">
         <v>594</v>
       </c>
-      <c r="BA1" s="44"/>
-      <c r="BB1" s="44"/>
-      <c r="BC1" s="44"/>
-      <c r="BD1" s="44"/>
-      <c r="BE1" s="44"/>
+      <c r="BA1" s="42"/>
+      <c r="BB1" s="42"/>
+      <c r="BC1" s="42"/>
+      <c r="BD1" s="42"/>
+      <c r="BE1" s="42"/>
     </row>
     <row r="2" spans="1:57" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -33488,82 +33474,82 @@
       <c r="AI2" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="AJ2" s="16">
+      <c r="AJ2" s="15">
         <f>DATE(LEFT(B2,4),MID(B2,6,2),MID(B2,9,2))</f>
         <v>43833</v>
       </c>
-      <c r="AK2" s="16">
+      <c r="AK2" s="15">
         <f t="shared" ref="AK2:AX3" si="1">DATE(LEFT(C2,4),MID(C2,6,2),MID(C2,9,2))</f>
         <v>43833</v>
       </c>
-      <c r="AL2" s="16">
+      <c r="AL2" s="15">
         <f t="shared" si="1"/>
         <v>43833</v>
       </c>
-      <c r="AM2" s="16">
+      <c r="AM2" s="15">
         <f t="shared" si="1"/>
         <v>43833</v>
       </c>
-      <c r="AN2" s="16">
+      <c r="AN2" s="15">
         <f t="shared" si="1"/>
         <v>43833</v>
       </c>
-      <c r="AO2" s="16">
+      <c r="AO2" s="15">
         <f t="shared" si="1"/>
         <v>43779</v>
       </c>
-      <c r="AP2" s="16">
+      <c r="AP2" s="15">
         <f t="shared" si="1"/>
         <v>43779</v>
       </c>
-      <c r="AQ2" s="16">
+      <c r="AQ2" s="15">
         <f t="shared" si="1"/>
         <v>43779</v>
       </c>
-      <c r="AR2" s="16">
+      <c r="AR2" s="15">
         <f t="shared" si="1"/>
         <v>43779</v>
       </c>
-      <c r="AS2" s="16">
+      <c r="AS2" s="15">
         <f t="shared" si="1"/>
         <v>43779</v>
       </c>
-      <c r="AT2" s="16">
+      <c r="AT2" s="15">
         <f t="shared" si="1"/>
         <v>43779</v>
       </c>
-      <c r="AU2" s="16">
+      <c r="AU2" s="15">
         <f t="shared" si="1"/>
         <v>43779</v>
       </c>
-      <c r="AV2" s="16">
+      <c r="AV2" s="15">
         <f t="shared" si="1"/>
         <v>43779</v>
       </c>
-      <c r="AW2" s="16">
+      <c r="AW2" s="15">
         <f t="shared" si="1"/>
         <v>43779</v>
       </c>
-      <c r="AX2" s="16">
+      <c r="AX2" s="15">
         <f t="shared" si="1"/>
         <v>43779</v>
       </c>
-      <c r="AZ2" s="17" t="s">
+      <c r="AZ2" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="BA2" s="16">
+      <c r="BA2" s="15">
         <v>43833</v>
       </c>
-      <c r="BB2" s="16">
+      <c r="BB2" s="15">
         <v>43833</v>
       </c>
-      <c r="BC2" s="16">
+      <c r="BC2" s="15">
         <v>43833</v>
       </c>
-      <c r="BD2" s="16">
+      <c r="BD2" s="15">
         <v>43833</v>
       </c>
-      <c r="BE2" s="16">
+      <c r="BE2" s="15">
         <v>43833</v>
       </c>
     </row>
@@ -33619,82 +33605,82 @@
       <c r="AI3" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="AJ3" s="16">
+      <c r="AJ3" s="15">
         <f>DATE(LEFT(B3,4),MID(B3,6,2),MID(B3,9,2))</f>
         <v>43833</v>
       </c>
-      <c r="AK3" s="16">
+      <c r="AK3" s="15">
         <f t="shared" si="1"/>
         <v>43907</v>
       </c>
-      <c r="AL3" s="16">
+      <c r="AL3" s="15">
         <f t="shared" si="1"/>
         <v>43952</v>
       </c>
-      <c r="AM3" s="16">
+      <c r="AM3" s="15">
         <f t="shared" si="1"/>
         <v>44027</v>
       </c>
-      <c r="AN3" s="16">
+      <c r="AN3" s="15">
         <f t="shared" si="1"/>
         <v>44130</v>
       </c>
-      <c r="AO3" s="16">
+      <c r="AO3" s="15">
         <f t="shared" si="1"/>
         <v>43779</v>
       </c>
-      <c r="AP3" s="16">
+      <c r="AP3" s="15">
         <f t="shared" si="1"/>
         <v>43907</v>
       </c>
-      <c r="AQ3" s="16">
+      <c r="AQ3" s="15">
         <f t="shared" si="1"/>
         <v>43952</v>
       </c>
-      <c r="AR3" s="16">
+      <c r="AR3" s="15">
         <f t="shared" si="1"/>
         <v>44027</v>
       </c>
-      <c r="AS3" s="16">
+      <c r="AS3" s="15">
         <f t="shared" si="1"/>
         <v>44130</v>
       </c>
-      <c r="AT3" s="16">
+      <c r="AT3" s="15">
         <f t="shared" si="1"/>
         <v>43779</v>
       </c>
-      <c r="AU3" s="16">
+      <c r="AU3" s="15">
         <f t="shared" si="1"/>
         <v>43907</v>
       </c>
-      <c r="AV3" s="16">
+      <c r="AV3" s="15">
         <f t="shared" si="1"/>
         <v>43952</v>
       </c>
-      <c r="AW3" s="16">
+      <c r="AW3" s="15">
         <f t="shared" si="1"/>
         <v>44027</v>
       </c>
-      <c r="AX3" s="16">
+      <c r="AX3" s="15">
         <f t="shared" si="1"/>
         <v>44133</v>
       </c>
-      <c r="AZ3" s="17" t="s">
+      <c r="AZ3" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="BA3" s="16">
+      <c r="BA3" s="15">
         <v>43833</v>
       </c>
-      <c r="BB3" s="16">
+      <c r="BB3" s="15">
         <v>43907</v>
       </c>
-      <c r="BC3" s="16">
+      <c r="BC3" s="15">
         <v>43952</v>
       </c>
-      <c r="BD3" s="16">
+      <c r="BD3" s="15">
         <v>44027</v>
       </c>
-      <c r="BE3" s="16">
+      <c r="BE3" s="15">
         <v>44130</v>
       </c>
     </row>
@@ -33810,7 +33796,7 @@
         <f t="shared" si="2"/>
         <v>354</v>
       </c>
-      <c r="AZ4" s="17" t="s">
+      <c r="AZ4" s="16" t="s">
         <v>516</v>
       </c>
       <c r="BA4" s="2">
@@ -33941,7 +33927,7 @@
         <f t="shared" si="3"/>
         <v>61.7 ± 14.1</v>
       </c>
-      <c r="AZ5" s="17" t="s">
+      <c r="AZ5" s="16" t="s">
         <v>518</v>
       </c>
       <c r="BA5" s="2" t="s">
@@ -34072,7 +34058,7 @@
         <f t="shared" si="4"/>
         <v>246 ± 98</v>
       </c>
-      <c r="AZ6" s="17" t="s">
+      <c r="AZ6" s="16" t="s">
         <v>408</v>
       </c>
       <c r="BA6" s="2" t="s">
@@ -34148,7 +34134,7 @@
         <v>1520 ± 690</v>
       </c>
       <c r="AK7" s="2" t="str">
-        <f t="shared" ref="AK7:AX7" si="5">MROUND(C11,10)&amp;" ± "&amp;MROUND(C22,10)</f>
+        <f t="shared" ref="AK7:AW7" si="5">MROUND(C11,10)&amp;" ± "&amp;MROUND(C22,10)</f>
         <v>550 ± 350</v>
       </c>
       <c r="AL7" s="2" t="str">
@@ -34203,7 +34189,7 @@
         <f>MROUND(P11,10)&amp;" ± "&amp;MROUND(P22,10)</f>
         <v>1610 ± 250</v>
       </c>
-      <c r="AZ7" s="17" t="s">
+      <c r="AZ7" s="16" t="s">
         <v>595</v>
       </c>
       <c r="BA7" s="2" t="s">
@@ -34334,7 +34320,7 @@
         <f t="shared" si="6"/>
         <v>0.4 ± 0.18</v>
       </c>
-      <c r="AZ8" s="17" t="s">
+      <c r="AZ8" s="16" t="s">
         <v>409</v>
       </c>
       <c r="BA8" s="2" t="s">
@@ -34420,7 +34406,7 @@
       <c r="AN9" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="AZ9" s="17"/>
+      <c r="AZ9" s="16"/>
       <c r="BA9" s="2"/>
       <c r="BB9" s="2">
         <f>(LEFT(BB6,3)-LEFT(BA6,3))/LEFT(BB6,3)/(BB4-BA4)</f>
@@ -34506,7 +34492,7 @@
       <c r="AN10" s="2">
         <v>43779</v>
       </c>
-      <c r="AZ10" s="17"/>
+      <c r="AZ10" s="16"/>
       <c r="BA10" s="2"/>
       <c r="BB10" s="2">
         <f>(LEFT(BB6,3)-LEFT($G6,3))/LEFT(BB6,3)/(BB4-$G4)</f>
@@ -34592,7 +34578,7 @@
       <c r="AN11" s="2">
         <v>44130</v>
       </c>
-      <c r="AZ11" s="17" t="s">
+      <c r="AZ11" s="16" t="s">
         <v>597</v>
       </c>
       <c r="BA11" s="2" t="s">
@@ -34682,7 +34668,7 @@
       <c r="AN12" s="2">
         <v>351</v>
       </c>
-      <c r="AZ12" s="17" t="s">
+      <c r="AZ12" s="16" t="s">
         <v>596</v>
       </c>
       <c r="BA12" s="2" t="s">
@@ -34772,14 +34758,14 @@
       <c r="AN13" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="AZ13" s="44" t="s">
+      <c r="AZ13" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="BA13" s="44"/>
-      <c r="BB13" s="44"/>
-      <c r="BC13" s="44"/>
-      <c r="BD13" s="44"/>
-      <c r="BE13" s="44"/>
+      <c r="BA13" s="42"/>
+      <c r="BB13" s="42"/>
+      <c r="BC13" s="42"/>
+      <c r="BD13" s="42"/>
+      <c r="BE13" s="42"/>
     </row>
     <row r="14" spans="1:57" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -34848,22 +34834,22 @@
       <c r="AN14" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="AZ14" s="17" t="s">
+      <c r="AZ14" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="BA14" s="16">
+      <c r="BA14" s="15">
         <v>43779</v>
       </c>
-      <c r="BB14" s="16">
+      <c r="BB14" s="15">
         <v>43779</v>
       </c>
-      <c r="BC14" s="16">
+      <c r="BC14" s="15">
         <v>43779</v>
       </c>
-      <c r="BD14" s="16">
+      <c r="BD14" s="15">
         <v>43779</v>
       </c>
-      <c r="BE14" s="16">
+      <c r="BE14" s="15">
         <v>43779</v>
       </c>
     </row>
@@ -34934,22 +34920,22 @@
       <c r="AN15" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="AZ15" s="17" t="s">
+      <c r="AZ15" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="BA15" s="16">
+      <c r="BA15" s="15">
         <v>43779</v>
       </c>
-      <c r="BB15" s="16">
+      <c r="BB15" s="15">
         <v>43907</v>
       </c>
-      <c r="BC15" s="16">
+      <c r="BC15" s="15">
         <v>43952</v>
       </c>
-      <c r="BD15" s="16">
+      <c r="BD15" s="15">
         <v>44027</v>
       </c>
-      <c r="BE15" s="16">
+      <c r="BE15" s="15">
         <v>44130</v>
       </c>
     </row>
@@ -35020,7 +35006,7 @@
       <c r="AN16" s="2" t="s">
         <v>547</v>
       </c>
-      <c r="AZ16" s="17" t="s">
+      <c r="AZ16" s="16" t="s">
         <v>516</v>
       </c>
       <c r="BA16" s="2">
@@ -35106,7 +35092,7 @@
       <c r="AN17" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="AZ17" s="17" t="s">
+      <c r="AZ17" s="16" t="s">
         <v>518</v>
       </c>
       <c r="BA17" s="2" t="s">
@@ -35177,22 +35163,22 @@
       <c r="AI18" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="AJ18" s="16">
+      <c r="AJ18" s="15">
         <v>43779</v>
       </c>
-      <c r="AK18" s="16">
+      <c r="AK18" s="15">
         <v>43779</v>
       </c>
-      <c r="AL18" s="16">
+      <c r="AL18" s="15">
         <v>43779</v>
       </c>
-      <c r="AM18" s="16">
+      <c r="AM18" s="15">
         <v>43779</v>
       </c>
-      <c r="AN18" s="16">
+      <c r="AN18" s="15">
         <v>43779</v>
       </c>
-      <c r="AZ18" s="17" t="s">
+      <c r="AZ18" s="16" t="s">
         <v>408</v>
       </c>
       <c r="BA18" s="2" t="s">
@@ -35263,22 +35249,22 @@
       <c r="AI19" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="AJ19" s="16">
+      <c r="AJ19" s="15">
         <v>43779</v>
       </c>
-      <c r="AK19" s="16">
+      <c r="AK19" s="15">
         <v>43907</v>
       </c>
-      <c r="AL19" s="16">
+      <c r="AL19" s="15">
         <v>43952</v>
       </c>
-      <c r="AM19" s="16">
+      <c r="AM19" s="15">
         <v>44027</v>
       </c>
-      <c r="AN19" s="16">
+      <c r="AN19" s="15">
         <v>44133</v>
       </c>
-      <c r="AZ19" s="17" t="s">
+      <c r="AZ19" s="16" t="s">
         <v>595</v>
       </c>
       <c r="BA19" s="2" t="s">
@@ -35364,7 +35350,7 @@
       <c r="AN20" s="2">
         <v>354</v>
       </c>
-      <c r="AZ20" s="17" t="s">
+      <c r="AZ20" s="16" t="s">
         <v>409</v>
       </c>
       <c r="BA20" s="2" t="s">
@@ -35450,7 +35436,7 @@
       <c r="AN21" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="AZ21" s="17"/>
+      <c r="AZ21" s="16"/>
       <c r="BA21" s="2"/>
       <c r="BB21" s="2">
         <f>(LEFT(BB18,3)-LEFT(BA18,3))/LEFT(BB18,3)/(BB16-BA16)</f>
@@ -35536,7 +35522,7 @@
       <c r="AN22" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="AZ22" s="17"/>
+      <c r="AZ22" s="16"/>
       <c r="BA22" s="2"/>
       <c r="BB22" s="2">
         <f>(LEFT(BB18,3)-LEFT($G18,3))/LEFT(BB18,3)/(BB16-$G16)</f>
@@ -35622,7 +35608,7 @@
       <c r="AN23" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="AZ23" s="17" t="s">
+      <c r="AZ23" s="16" t="s">
         <v>597</v>
       </c>
       <c r="BA23" s="2" t="s">
@@ -35712,7 +35698,7 @@
       <c r="AN24" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="AZ24" s="17" t="s">
+      <c r="AZ24" s="16" t="s">
         <v>596</v>
       </c>
       <c r="BA24" s="2" t="s">
@@ -35784,14 +35770,14 @@
       <c r="P25">
         <v>5.5738185185815699E-2</v>
       </c>
-      <c r="AZ25" s="44" t="s">
+      <c r="AZ25" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="BA25" s="44"/>
-      <c r="BB25" s="44"/>
-      <c r="BC25" s="44"/>
-      <c r="BD25" s="44"/>
-      <c r="BE25" s="44"/>
+      <c r="BA25" s="42"/>
+      <c r="BB25" s="42"/>
+      <c r="BC25" s="42"/>
+      <c r="BD25" s="42"/>
+      <c r="BE25" s="42"/>
     </row>
     <row r="26" spans="1:57" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -35842,47 +35828,47 @@
       <c r="P26">
         <v>0.18321218591278601</v>
       </c>
-      <c r="AZ26" s="17" t="s">
+      <c r="AZ26" s="16" t="s">
         <v>507</v>
       </c>
-      <c r="BA26" s="16">
+      <c r="BA26" s="15">
         <v>43779</v>
       </c>
-      <c r="BB26" s="16">
+      <c r="BB26" s="15">
         <v>43779</v>
       </c>
-      <c r="BC26" s="16">
+      <c r="BC26" s="15">
         <v>43779</v>
       </c>
-      <c r="BD26" s="16">
+      <c r="BD26" s="15">
         <v>43779</v>
       </c>
-      <c r="BE26" s="16">
+      <c r="BE26" s="15">
         <v>43779</v>
       </c>
     </row>
     <row r="27" spans="1:57" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="AZ27" s="17" t="s">
+      <c r="AZ27" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="BA27" s="16">
+      <c r="BA27" s="15">
         <v>43779</v>
       </c>
-      <c r="BB27" s="16">
+      <c r="BB27" s="15">
         <v>43907</v>
       </c>
-      <c r="BC27" s="16">
+      <c r="BC27" s="15">
         <v>43952</v>
       </c>
-      <c r="BD27" s="16">
+      <c r="BD27" s="15">
         <v>44027</v>
       </c>
-      <c r="BE27" s="16">
+      <c r="BE27" s="15">
         <v>44133</v>
       </c>
     </row>
     <row r="28" spans="1:57" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="AZ28" s="17" t="s">
+      <c r="AZ28" s="16" t="s">
         <v>516</v>
       </c>
       <c r="BA28" s="2">
@@ -35902,7 +35888,7 @@
       </c>
     </row>
     <row r="29" spans="1:57" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="AZ29" s="17" t="s">
+      <c r="AZ29" s="16" t="s">
         <v>518</v>
       </c>
       <c r="BA29" s="2" t="s">
@@ -35922,7 +35908,7 @@
       </c>
     </row>
     <row r="30" spans="1:57" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="AZ30" s="17" t="s">
+      <c r="AZ30" s="16" t="s">
         <v>408</v>
       </c>
       <c r="BA30" s="2" t="s">
@@ -35942,7 +35928,7 @@
       </c>
     </row>
     <row r="31" spans="1:57" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="AZ31" s="17" t="s">
+      <c r="AZ31" s="16" t="s">
         <v>595</v>
       </c>
       <c r="BA31" s="2" t="s">
@@ -35962,7 +35948,7 @@
       </c>
     </row>
     <row r="32" spans="1:57" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="AZ32" s="17" t="s">
+      <c r="AZ32" s="16" t="s">
         <v>409</v>
       </c>
       <c r="BA32" s="2" t="s">
@@ -35982,7 +35968,7 @@
       </c>
     </row>
     <row r="33" spans="52:57" x14ac:dyDescent="0.25">
-      <c r="AZ33" s="17"/>
+      <c r="AZ33" s="16"/>
       <c r="BA33" s="2"/>
       <c r="BB33" s="2">
         <f>(LEFT(BB30,3)-LEFT(BA30,3))/LEFT(BB30,3)/(BB28-BA28)</f>
@@ -36002,7 +35988,7 @@
       </c>
     </row>
     <row r="34" spans="52:57" x14ac:dyDescent="0.25">
-      <c r="AZ34" s="17"/>
+      <c r="AZ34" s="16"/>
       <c r="BA34" s="2"/>
       <c r="BB34" s="2" t="e">
         <f>(LEFT(BB30,3)-LEFT($G30,3))/LEFT(BB30,3)/(BB28-$G28)</f>
@@ -36022,7 +36008,7 @@
       </c>
     </row>
     <row r="35" spans="52:57" ht="69" x14ac:dyDescent="0.25">
-      <c r="AZ35" s="17" t="s">
+      <c r="AZ35" s="16" t="s">
         <v>597</v>
       </c>
       <c r="BA35" s="2" t="s">
@@ -36046,7 +36032,7 @@
       </c>
     </row>
     <row r="36" spans="52:57" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="AZ36" s="17" t="s">
+      <c r="AZ36" s="16" t="s">
         <v>596</v>
       </c>
       <c r="BA36" s="2" t="s">

--- a/wetlandP_v2.1/inputs/lcbp_sites/df.lcbp.stocks.xlsx
+++ b/wetlandP_v2.1/inputs/lcbp_sites/df.lcbp.stocks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adrian.Wiegman\Documents\GitHub\wetlandP_2p1_stable\wetlandP_v2.1\inputs\lcbp_sites\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35693D9F-1D87-4409-BDB8-49C93EB3B378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECD8498-AC96-4FAB-83A0-E58B9B4B3AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table1" sheetId="19" r:id="rId1"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="902">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2202" uniqueCount="905">
   <si>
     <t>site</t>
   </si>
@@ -2382,27 +2382,6 @@
     <t>32.71 ± 7.73</t>
   </si>
   <si>
-    <t>IP.f (f1 + f2a + f3)</t>
-  </si>
-  <si>
-    <t>IP.HCl:IP.f (%)</t>
-  </si>
-  <si>
-    <t>f1. (1M KCl SRP)</t>
-  </si>
-  <si>
-    <t>f2a (0.1M NaOH SRP)</t>
-  </si>
-  <si>
-    <t>f2b (0.1M NaOH TP)</t>
-  </si>
-  <si>
-    <t>f3 (0.5M HCl SRP)</t>
-  </si>
-  <si>
-    <t>f4 (residue TP)</t>
-  </si>
-  <si>
     <t>Al.Ox</t>
   </si>
   <si>
@@ -2418,21 +2397,6 @@
     <t>SPSC.Ox</t>
   </si>
   <si>
-    <t>OP.HCl (TP.HCl - IP.HCl)</t>
-  </si>
-  <si>
-    <t>OP.HCl:IP.f (%)</t>
-  </si>
-  <si>
-    <t>OP.f (f2b + f4)</t>
-  </si>
-  <si>
-    <t>IP.HCl (1M HCl, dry soil)</t>
-  </si>
-  <si>
-    <t>TP.HCl (1M HCl, ash)</t>
-  </si>
-  <si>
     <t>0.01 ± 0.008</t>
   </si>
   <si>
@@ -2580,9 +2544,6 @@
     <t>A. P fractions from 4 step (5 pool) sequential extraction (Roy 2012; Reddy et al. 2013) (g P/m2)</t>
   </si>
   <si>
-    <t>B. Comparison of 4 step sequential extraction (Roy 2012) with 3 pool parallel extraction (Hedley 19XX; Reddy et al. 2013) (g P/m2)</t>
-  </si>
-  <si>
     <t>C. Oxalate Extractable Al, Fe, Mn, P (Courshesne &amp; Turmel 2008) and Water Extractable P (Nair et al 2014)</t>
   </si>
   <si>
@@ -2821,6 +2782,54 @@
   </si>
   <si>
     <t>IP_a</t>
+  </si>
+  <si>
+    <t>SF1. (1M KCl SRP)</t>
+  </si>
+  <si>
+    <t>SF2 (0.1M NaOH SRP)</t>
+  </si>
+  <si>
+    <t>SF3 (0.1M NaOH [TP-SRP])</t>
+  </si>
+  <si>
+    <t>SF4 (0.5M HCl SRP)</t>
+  </si>
+  <si>
+    <t>SF5 (residue TP)</t>
+  </si>
+  <si>
+    <t>HCl-Pi:SF-IP (%)</t>
+  </si>
+  <si>
+    <t>HCl-Pi (1M HCl, dry soil)</t>
+  </si>
+  <si>
+    <t>SF-Pi (SF1 + SF2 + SF4)</t>
+  </si>
+  <si>
+    <t>SF-TP (sum of all SFs)</t>
+  </si>
+  <si>
+    <t>HCl-TP (1M HCl, ash)</t>
+  </si>
+  <si>
+    <t>HCl-TP:SF-TP (%)</t>
+  </si>
+  <si>
+    <t>HCl-Po:SF-Po (%)</t>
+  </si>
+  <si>
+    <t>SF-Po (SF3 + SF5)</t>
+  </si>
+  <si>
+    <t>HCl-Po (TP.HCl - IP.HCl)</t>
+  </si>
+  <si>
+    <t>B. Comparison of 5 pool sequential P fractions (Roy 2012) with 2 pool parallel extraction (Reddy et al. 2013) (g P/m2)</t>
+  </si>
+  <si>
+    <t>Litterbag Decomposision Results</t>
   </si>
 </sst>
 </file>
@@ -2977,7 +2986,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3160,6 +3169,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3532,7 +3547,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3649,6 +3664,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -4246,13 +4273,13 @@
         <v>409</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>827</v>
+        <v>814</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>828</v>
+        <v>815</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>829</v>
+        <v>816</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
@@ -4320,13 +4347,13 @@
         <v>409</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>824</v>
+        <v>811</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>825</v>
+        <v>812</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>826</v>
+        <v>813</v>
       </c>
       <c r="F17"/>
       <c r="G17"/>
@@ -4337,7 +4364,7 @@
     </row>
     <row r="18" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
-        <v>830</v>
+        <v>817</v>
       </c>
       <c r="B18" s="36"/>
       <c r="C18" s="36"/>
@@ -4832,9 +4859,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:OG16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Z1" sqref="Z1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -4859,1193 +4886,1193 @@
     <col min="299" max="300" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:397" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:397" s="46" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="V1" t="s">
+      <c r="V1" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="W1" t="s">
+      <c r="W1" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="X1" t="s">
+      <c r="X1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AB1" s="46" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AC1" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AD1" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AE1" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AF1" s="46" t="s">
         <v>436</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AG1" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AH1" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AI1" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AJ1" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AK1" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AL1" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AM1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AN1" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AO1" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AP1" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AQ1" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AR1" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="AS1" t="s">
+      <c r="AS1" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AT1" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="AU1" t="s">
+      <c r="AU1" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="AV1" t="s">
+      <c r="AV1" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="AW1" t="s">
+      <c r="AW1" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="AX1" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AY1" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="AZ1" t="s">
+      <c r="AZ1" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="BA1" t="s">
+      <c r="BA1" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="BB1" t="s">
+      <c r="BB1" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="BC1" t="s">
+      <c r="BC1" s="46" t="s">
         <v>437</v>
       </c>
-      <c r="BD1" t="s">
+      <c r="BD1" s="46" t="s">
         <v>447</v>
       </c>
-      <c r="BE1" t="s">
+      <c r="BE1" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="BF1" t="s">
+      <c r="BF1" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="BG1" t="s">
+      <c r="BG1" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="BH1" t="s">
+      <c r="BH1" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="BI1" t="s">
+      <c r="BI1" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="BJ1" t="s">
+      <c r="BJ1" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="BK1" t="s">
+      <c r="BK1" s="46" t="s">
         <v>58</v>
       </c>
-      <c r="BL1" t="s">
+      <c r="BL1" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="BM1" t="s">
+      <c r="BM1" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="BN1" t="s">
+      <c r="BN1" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="BO1" t="s">
+      <c r="BO1" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="BP1" t="s">
+      <c r="BP1" s="46" t="s">
         <v>63</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BQ1" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BR1" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BS1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BT1" s="46" t="s">
         <v>448</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BU1" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BV1" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="BW1" t="s">
+      <c r="BW1" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="BX1" t="s">
+      <c r="BX1" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BY1" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="BZ1" t="s">
+      <c r="BZ1" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="CA1" t="s">
+      <c r="CA1" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="CB1" t="s">
+      <c r="CB1" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="CC1" t="s">
+      <c r="CC1" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="CD1" t="s">
+      <c r="CD1" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="CE1" t="s">
+      <c r="CE1" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="CF1" t="s">
+      <c r="CF1" s="46" t="s">
         <v>78</v>
       </c>
-      <c r="CG1" t="s">
+      <c r="CG1" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="CH1" t="s">
+      <c r="CH1" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="CI1" t="s">
+      <c r="CI1" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="CJ1" t="s">
+      <c r="CJ1" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="CK1" t="s">
+      <c r="CK1" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="CL1" t="s">
+      <c r="CL1" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="CM1" t="s">
+      <c r="CM1" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="CN1" t="s">
+      <c r="CN1" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="CO1" t="s">
+      <c r="CO1" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="CP1" t="s">
+      <c r="CP1" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="CQ1" t="s">
+      <c r="CQ1" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="CR1" t="s">
+      <c r="CR1" s="46" t="s">
         <v>449</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="CS1" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="CT1" t="s">
+      <c r="CT1" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="CU1" t="s">
+      <c r="CU1" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="CV1" t="s">
+      <c r="CV1" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="CW1" t="s">
+      <c r="CW1" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="CX1" t="s">
+      <c r="CX1" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="CY1" t="s">
+      <c r="CY1" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="CZ1" t="s">
+      <c r="CZ1" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="DA1" t="s">
+      <c r="DA1" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="DB1" t="s">
+      <c r="DB1" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="DC1" t="s">
+      <c r="DC1" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="DD1" t="s">
+      <c r="DD1" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="DE1" t="s">
+      <c r="DE1" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="DF1" t="s">
+      <c r="DF1" s="46" t="s">
         <v>102</v>
       </c>
-      <c r="DG1" t="s">
+      <c r="DG1" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="DH1" t="s">
+      <c r="DH1" s="46" t="s">
         <v>104</v>
       </c>
-      <c r="DI1" t="s">
+      <c r="DI1" s="46" t="s">
         <v>105</v>
       </c>
-      <c r="DJ1" t="s">
+      <c r="DJ1" s="46" t="s">
         <v>106</v>
       </c>
-      <c r="DK1" t="s">
+      <c r="DK1" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="DL1" t="s">
+      <c r="DL1" s="46" t="s">
         <v>108</v>
       </c>
-      <c r="DM1" t="s">
+      <c r="DM1" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="DN1" t="s">
+      <c r="DN1" s="46" t="s">
         <v>110</v>
       </c>
-      <c r="DO1" t="s">
+      <c r="DO1" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="DP1" t="s">
+      <c r="DP1" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="DQ1" t="s">
+      <c r="DQ1" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="DR1" t="s">
+      <c r="DR1" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="DS1" t="s">
+      <c r="DS1" s="46" t="s">
         <v>115</v>
       </c>
-      <c r="DT1" t="s">
+      <c r="DT1" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="DU1" t="s">
+      <c r="DU1" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="DV1" t="s">
+      <c r="DV1" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="DW1" t="s">
+      <c r="DW1" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="DX1" t="s">
+      <c r="DX1" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="DY1" t="s">
+      <c r="DY1" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="DZ1" t="s">
+      <c r="DZ1" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="EA1" t="s">
+      <c r="EA1" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="EB1" t="s">
+      <c r="EB1" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="EC1" t="s">
+      <c r="EC1" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="ED1" t="s">
+      <c r="ED1" s="46" t="s">
         <v>450</v>
       </c>
-      <c r="EE1" t="s">
+      <c r="EE1" s="46" t="s">
         <v>126</v>
       </c>
-      <c r="EF1" t="s">
+      <c r="EF1" s="46" t="s">
         <v>127</v>
       </c>
-      <c r="EG1" t="s">
+      <c r="EG1" s="46" t="s">
         <v>128</v>
       </c>
-      <c r="EH1" t="s">
+      <c r="EH1" s="46" t="s">
         <v>129</v>
       </c>
-      <c r="EI1" t="s">
+      <c r="EI1" s="46" t="s">
         <v>130</v>
       </c>
-      <c r="EJ1" t="s">
+      <c r="EJ1" s="46" t="s">
         <v>131</v>
       </c>
-      <c r="EK1" t="s">
+      <c r="EK1" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="EL1" t="s">
+      <c r="EL1" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="EM1" t="s">
+      <c r="EM1" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="EN1" t="s">
+      <c r="EN1" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="EO1" t="s">
+      <c r="EO1" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="EP1" t="s">
+      <c r="EP1" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="EQ1" t="s">
+      <c r="EQ1" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="ER1" t="s">
+      <c r="ER1" s="46" t="s">
         <v>139</v>
       </c>
-      <c r="ES1" t="s">
+      <c r="ES1" s="46" t="s">
         <v>140</v>
       </c>
-      <c r="ET1" t="s">
+      <c r="ET1" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="EU1" t="s">
+      <c r="EU1" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="EV1" t="s">
+      <c r="EV1" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="EW1" t="s">
+      <c r="EW1" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="EX1" t="s">
+      <c r="EX1" s="46" t="s">
         <v>145</v>
       </c>
-      <c r="EY1" t="s">
+      <c r="EY1" s="46" t="s">
         <v>146</v>
       </c>
-      <c r="EZ1" t="s">
+      <c r="EZ1" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="FA1" t="s">
+      <c r="FA1" s="46" t="s">
         <v>451</v>
       </c>
-      <c r="FB1" t="s">
+      <c r="FB1" s="46" t="s">
         <v>451</v>
       </c>
-      <c r="FC1" t="s">
+      <c r="FC1" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="FD1" t="s">
+      <c r="FD1" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="FE1" t="s">
+      <c r="FE1" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="FF1" t="s">
+      <c r="FF1" s="46" t="s">
         <v>151</v>
       </c>
-      <c r="FG1" t="s">
+      <c r="FG1" s="46" t="s">
         <v>152</v>
       </c>
-      <c r="FH1" t="s">
+      <c r="FH1" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="FI1" t="s">
+      <c r="FI1" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="FJ1" t="s">
+      <c r="FJ1" s="46" t="s">
         <v>155</v>
       </c>
-      <c r="FK1" t="s">
+      <c r="FK1" s="46" t="s">
         <v>156</v>
       </c>
-      <c r="FL1" t="s">
+      <c r="FL1" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="FM1" t="s">
+      <c r="FM1" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="FN1" t="s">
+      <c r="FN1" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="FO1" t="s">
+      <c r="FO1" s="46" t="s">
         <v>160</v>
       </c>
-      <c r="FP1" t="s">
+      <c r="FP1" s="46" t="s">
         <v>161</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FQ1" s="46" t="s">
         <v>162</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FR1" s="46" t="s">
         <v>444</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FS1" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FT1" s="46" t="s">
         <v>164</v>
       </c>
-      <c r="FU1" t="s">
+      <c r="FU1" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="FV1" t="s">
+      <c r="FV1" s="46" t="s">
         <v>166</v>
       </c>
-      <c r="FW1" t="s">
+      <c r="FW1" s="46" t="s">
         <v>167</v>
       </c>
-      <c r="FX1" t="s">
+      <c r="FX1" s="46" t="s">
         <v>168</v>
       </c>
-      <c r="FY1" t="s">
+      <c r="FY1" s="46" t="s">
         <v>169</v>
       </c>
-      <c r="FZ1" t="s">
+      <c r="FZ1" s="46" t="s">
         <v>170</v>
       </c>
-      <c r="GA1" t="s">
+      <c r="GA1" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="GB1" t="s">
+      <c r="GB1" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="GC1" t="s">
+      <c r="GC1" s="46" t="s">
         <v>173</v>
       </c>
-      <c r="GD1" t="s">
+      <c r="GD1" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="GE1" t="s">
+      <c r="GE1" s="46" t="s">
         <v>175</v>
       </c>
-      <c r="GF1" t="s">
+      <c r="GF1" s="46" t="s">
         <v>176</v>
       </c>
-      <c r="GG1" t="s">
+      <c r="GG1" s="46" t="s">
         <v>177</v>
       </c>
-      <c r="GH1" t="s">
+      <c r="GH1" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="GI1" t="s">
+      <c r="GI1" s="46" t="s">
         <v>179</v>
       </c>
-      <c r="GJ1" t="s">
+      <c r="GJ1" s="46" t="s">
         <v>180</v>
       </c>
-      <c r="GK1" t="s">
+      <c r="GK1" s="46" t="s">
         <v>181</v>
       </c>
-      <c r="GL1" t="s">
+      <c r="GL1" s="46" t="s">
         <v>182</v>
       </c>
-      <c r="GM1" t="s">
+      <c r="GM1" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="GN1" t="s">
+      <c r="GN1" s="46" t="s">
         <v>184</v>
       </c>
-      <c r="GO1" t="s">
+      <c r="GO1" s="46" t="s">
         <v>446</v>
       </c>
-      <c r="GP1" t="s">
+      <c r="GP1" s="46" t="s">
         <v>445</v>
       </c>
-      <c r="GQ1" t="s">
+      <c r="GQ1" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="GR1" t="s">
+      <c r="GR1" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="GS1" t="s">
+      <c r="GS1" s="46" t="s">
         <v>187</v>
       </c>
-      <c r="GT1" t="s">
+      <c r="GT1" s="46" t="s">
         <v>188</v>
       </c>
-      <c r="GU1" t="s">
+      <c r="GU1" s="46" t="s">
         <v>189</v>
       </c>
-      <c r="GV1" t="s">
+      <c r="GV1" s="46" t="s">
         <v>190</v>
       </c>
-      <c r="GW1" t="s">
+      <c r="GW1" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="GX1" t="s">
+      <c r="GX1" s="46" t="s">
         <v>192</v>
       </c>
-      <c r="GY1" t="s">
+      <c r="GY1" s="46" t="s">
         <v>193</v>
       </c>
-      <c r="GZ1" t="s">
+      <c r="GZ1" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="HA1" t="s">
+      <c r="HA1" s="46" t="s">
         <v>195</v>
       </c>
-      <c r="HB1" t="s">
+      <c r="HB1" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="HC1" t="s">
+      <c r="HC1" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="HD1" t="s">
+      <c r="HD1" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="HE1" t="s">
+      <c r="HE1" s="46" t="s">
         <v>199</v>
       </c>
-      <c r="HF1" t="s">
+      <c r="HF1" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="HG1" t="s">
+      <c r="HG1" s="46" t="s">
         <v>201</v>
       </c>
-      <c r="HH1" t="s">
+      <c r="HH1" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="HI1" t="s">
+      <c r="HI1" s="46" t="s">
         <v>203</v>
       </c>
-      <c r="HJ1" t="s">
+      <c r="HJ1" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="HK1" t="s">
+      <c r="HK1" s="46" t="s">
         <v>205</v>
       </c>
-      <c r="HL1" t="s">
+      <c r="HL1" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="HM1" t="s">
+      <c r="HM1" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="HN1" t="s">
+      <c r="HN1" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="HO1" t="s">
+      <c r="HO1" s="46" t="s">
         <v>209</v>
       </c>
-      <c r="HP1" t="s">
+      <c r="HP1" s="46" t="s">
         <v>210</v>
       </c>
-      <c r="HQ1" t="s">
+      <c r="HQ1" s="46" t="s">
         <v>211</v>
       </c>
-      <c r="HR1" t="s">
+      <c r="HR1" s="46" t="s">
         <v>212</v>
       </c>
-      <c r="HS1" t="s">
+      <c r="HS1" s="46" t="s">
         <v>213</v>
       </c>
-      <c r="HT1" t="s">
+      <c r="HT1" s="46" t="s">
         <v>214</v>
       </c>
-      <c r="HU1" t="s">
+      <c r="HU1" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="HV1" t="s">
+      <c r="HV1" s="46" t="s">
         <v>216</v>
       </c>
-      <c r="HW1" t="s">
+      <c r="HW1" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="HX1" t="s">
+      <c r="HX1" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="HY1" t="s">
+      <c r="HY1" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="HZ1" t="s">
+      <c r="HZ1" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="IA1" t="s">
+      <c r="IA1" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="IB1" t="s">
+      <c r="IB1" s="46" t="s">
         <v>439</v>
       </c>
-      <c r="IC1" t="s">
+      <c r="IC1" s="46" t="s">
         <v>222</v>
       </c>
-      <c r="ID1" t="s">
+      <c r="ID1" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="IE1" t="s">
+      <c r="IE1" s="46" t="s">
         <v>224</v>
       </c>
-      <c r="IF1" t="s">
+      <c r="IF1" s="46" t="s">
         <v>225</v>
       </c>
-      <c r="IG1" t="s">
+      <c r="IG1" s="46" t="s">
         <v>226</v>
       </c>
-      <c r="IH1" t="s">
+      <c r="IH1" s="46" t="s">
         <v>227</v>
       </c>
-      <c r="II1" t="s">
+      <c r="II1" s="46" t="s">
         <v>228</v>
       </c>
-      <c r="IJ1" t="s">
+      <c r="IJ1" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="IK1" t="s">
+      <c r="IK1" s="46" t="s">
         <v>230</v>
       </c>
-      <c r="IL1" t="s">
+      <c r="IL1" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="IM1" t="s">
+      <c r="IM1" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="IN1" t="s">
+      <c r="IN1" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="IO1" t="s">
+      <c r="IO1" s="46" t="s">
         <v>234</v>
       </c>
-      <c r="IP1" t="s">
+      <c r="IP1" s="46" t="s">
         <v>235</v>
       </c>
-      <c r="IQ1" t="s">
+      <c r="IQ1" s="46" t="s">
         <v>236</v>
       </c>
-      <c r="IR1" t="s">
+      <c r="IR1" s="46" t="s">
         <v>237</v>
       </c>
-      <c r="IS1" t="s">
+      <c r="IS1" s="46" t="s">
         <v>238</v>
       </c>
-      <c r="IT1" t="s">
+      <c r="IT1" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="IU1" t="s">
+      <c r="IU1" s="46" t="s">
         <v>240</v>
       </c>
-      <c r="IV1" t="s">
+      <c r="IV1" s="46" t="s">
         <v>241</v>
       </c>
-      <c r="IW1" t="s">
+      <c r="IW1" s="46" t="s">
         <v>242</v>
       </c>
-      <c r="IX1" t="s">
+      <c r="IX1" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="IY1" t="s">
+      <c r="IY1" s="46" t="s">
         <v>441</v>
       </c>
-      <c r="IZ1" t="s">
+      <c r="IZ1" s="46" t="s">
         <v>440</v>
       </c>
-      <c r="JA1" t="s">
+      <c r="JA1" s="46" t="s">
         <v>244</v>
       </c>
-      <c r="JB1" t="s">
+      <c r="JB1" s="46" t="s">
         <v>245</v>
       </c>
-      <c r="JC1" t="s">
+      <c r="JC1" s="46" t="s">
         <v>246</v>
       </c>
-      <c r="JD1" t="s">
+      <c r="JD1" s="46" t="s">
         <v>247</v>
       </c>
-      <c r="JE1" t="s">
+      <c r="JE1" s="46" t="s">
         <v>248</v>
       </c>
-      <c r="JF1" t="s">
+      <c r="JF1" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="JG1" t="s">
+      <c r="JG1" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="JH1" t="s">
+      <c r="JH1" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="JI1" t="s">
+      <c r="JI1" s="46" t="s">
         <v>252</v>
       </c>
-      <c r="JJ1" t="s">
+      <c r="JJ1" s="46" t="s">
         <v>253</v>
       </c>
-      <c r="JK1" t="s">
+      <c r="JK1" s="46" t="s">
         <v>254</v>
       </c>
-      <c r="JL1" t="s">
+      <c r="JL1" s="46" t="s">
         <v>255</v>
       </c>
-      <c r="JM1" t="s">
+      <c r="JM1" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="JN1" t="s">
+      <c r="JN1" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="JO1" t="s">
+      <c r="JO1" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="JP1" t="s">
+      <c r="JP1" s="46" t="s">
         <v>438</v>
       </c>
-      <c r="JQ1" t="s">
+      <c r="JQ1" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="JR1" t="s">
+      <c r="JR1" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="JS1" t="s">
+      <c r="JS1" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="JT1" t="s">
+      <c r="JT1" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="JU1" t="s">
+      <c r="JU1" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="JV1" t="s">
+      <c r="JV1" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="JW1" t="s">
+      <c r="JW1" s="46" t="s">
         <v>265</v>
       </c>
-      <c r="JX1" t="s">
+      <c r="JX1" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="JY1" t="s">
+      <c r="JY1" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="JZ1" t="s">
+      <c r="JZ1" s="46" t="s">
         <v>268</v>
       </c>
-      <c r="KA1" t="s">
+      <c r="KA1" s="46" t="s">
         <v>269</v>
       </c>
-      <c r="KB1" t="s">
+      <c r="KB1" s="46" t="s">
         <v>270</v>
       </c>
-      <c r="KC1" t="s">
+      <c r="KC1" s="46" t="s">
         <v>271</v>
       </c>
-      <c r="KD1" t="s">
+      <c r="KD1" s="46" t="s">
         <v>272</v>
       </c>
-      <c r="KE1" t="s">
+      <c r="KE1" s="46" t="s">
         <v>273</v>
       </c>
-      <c r="KF1" t="s">
+      <c r="KF1" s="46" t="s">
         <v>274</v>
       </c>
-      <c r="KG1" t="s">
+      <c r="KG1" s="46" t="s">
         <v>275</v>
       </c>
-      <c r="KH1" t="s">
+      <c r="KH1" s="46" t="s">
         <v>276</v>
       </c>
-      <c r="KI1" t="s">
+      <c r="KI1" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="KJ1" t="s">
+      <c r="KJ1" s="46" t="s">
         <v>278</v>
       </c>
-      <c r="KK1" t="s">
+      <c r="KK1" s="46" t="s">
         <v>279</v>
       </c>
-      <c r="KL1" t="s">
+      <c r="KL1" s="46" t="s">
         <v>280</v>
       </c>
-      <c r="KM1" t="s">
+      <c r="KM1" s="46" t="s">
         <v>443</v>
       </c>
-      <c r="KN1" t="s">
+      <c r="KN1" s="46" t="s">
         <v>442</v>
       </c>
-      <c r="KO1" t="s">
+      <c r="KO1" s="46" t="s">
         <v>281</v>
       </c>
-      <c r="KP1" t="s">
+      <c r="KP1" s="46" t="s">
         <v>282</v>
       </c>
-      <c r="KQ1" t="s">
+      <c r="KQ1" s="46" t="s">
         <v>283</v>
       </c>
-      <c r="KR1" t="s">
+      <c r="KR1" s="46" t="s">
         <v>284</v>
       </c>
-      <c r="KS1" t="s">
+      <c r="KS1" s="46" t="s">
         <v>285</v>
       </c>
-      <c r="KT1" t="s">
+      <c r="KT1" s="46" t="s">
         <v>286</v>
       </c>
-      <c r="KU1" t="s">
+      <c r="KU1" s="46" t="s">
         <v>287</v>
       </c>
-      <c r="KV1" t="s">
+      <c r="KV1" s="46" t="s">
         <v>288</v>
       </c>
-      <c r="KW1" t="s">
+      <c r="KW1" s="46" t="s">
         <v>289</v>
       </c>
-      <c r="KX1" t="s">
+      <c r="KX1" s="46" t="s">
         <v>290</v>
       </c>
-      <c r="KY1" t="s">
+      <c r="KY1" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="KZ1" t="s">
+      <c r="KZ1" s="46" t="s">
         <v>292</v>
       </c>
-      <c r="LA1" t="s">
+      <c r="LA1" s="46" t="s">
         <v>293</v>
       </c>
-      <c r="LB1" t="s">
+      <c r="LB1" s="46" t="s">
         <v>294</v>
       </c>
-      <c r="LC1" t="s">
+      <c r="LC1" s="46" t="s">
         <v>295</v>
       </c>
-      <c r="LD1" t="s">
+      <c r="LD1" s="46" t="s">
         <v>296</v>
       </c>
-      <c r="LE1" t="s">
+      <c r="LE1" s="46" t="s">
         <v>297</v>
       </c>
-      <c r="LF1" t="s">
+      <c r="LF1" s="46" t="s">
         <v>298</v>
       </c>
-      <c r="LG1" t="s">
+      <c r="LG1" s="46" t="s">
         <v>299</v>
       </c>
-      <c r="LH1" t="s">
+      <c r="LH1" s="46" t="s">
         <v>300</v>
       </c>
-      <c r="LI1" t="s">
+      <c r="LI1" s="46" t="s">
         <v>301</v>
       </c>
-      <c r="LJ1" t="s">
+      <c r="LJ1" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="LK1" t="s">
+      <c r="LK1" s="46" t="s">
         <v>303</v>
       </c>
-      <c r="LL1" t="s">
+      <c r="LL1" s="46" t="s">
         <v>304</v>
       </c>
-      <c r="LM1" t="s">
+      <c r="LM1" s="46" t="s">
         <v>305</v>
       </c>
-      <c r="LN1" t="s">
+      <c r="LN1" s="46" t="s">
         <v>306</v>
       </c>
-      <c r="LO1" t="s">
+      <c r="LO1" s="46" t="s">
         <v>307</v>
       </c>
-      <c r="LP1" t="s">
+      <c r="LP1" s="46" t="s">
         <v>308</v>
       </c>
-      <c r="LQ1" t="s">
+      <c r="LQ1" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="LR1" t="s">
+      <c r="LR1" s="46" t="s">
         <v>310</v>
       </c>
-      <c r="LS1" t="s">
+      <c r="LS1" s="46" t="s">
         <v>311</v>
       </c>
-      <c r="LT1" t="s">
+      <c r="LT1" s="46" t="s">
         <v>312</v>
       </c>
-      <c r="LU1" t="s">
+      <c r="LU1" s="46" t="s">
         <v>313</v>
       </c>
-      <c r="LV1" t="s">
+      <c r="LV1" s="46" t="s">
         <v>314</v>
       </c>
-      <c r="LW1" t="s">
+      <c r="LW1" s="46" t="s">
         <v>315</v>
       </c>
-      <c r="LX1" t="s">
+      <c r="LX1" s="46" t="s">
         <v>316</v>
       </c>
-      <c r="LY1" t="s">
+      <c r="LY1" s="46" t="s">
         <v>317</v>
       </c>
-      <c r="LZ1" t="s">
+      <c r="LZ1" s="46" t="s">
         <v>318</v>
       </c>
-      <c r="MA1" t="s">
+      <c r="MA1" s="46" t="s">
         <v>319</v>
       </c>
-      <c r="MB1" t="s">
+      <c r="MB1" s="46" t="s">
         <v>320</v>
       </c>
-      <c r="MC1" t="s">
+      <c r="MC1" s="46" t="s">
         <v>321</v>
       </c>
-      <c r="MD1" t="s">
+      <c r="MD1" s="46" t="s">
         <v>322</v>
       </c>
-      <c r="ME1" t="s">
+      <c r="ME1" s="46" t="s">
         <v>323</v>
       </c>
-      <c r="MF1" t="s">
+      <c r="MF1" s="46" t="s">
         <v>324</v>
       </c>
-      <c r="MG1" t="s">
+      <c r="MG1" s="46" t="s">
         <v>325</v>
       </c>
-      <c r="MH1" t="s">
+      <c r="MH1" s="46" t="s">
         <v>326</v>
       </c>
-      <c r="MI1" t="s">
+      <c r="MI1" s="46" t="s">
         <v>327</v>
       </c>
-      <c r="MJ1" t="s">
+      <c r="MJ1" s="46" t="s">
         <v>328</v>
       </c>
-      <c r="MK1" t="s">
+      <c r="MK1" s="46" t="s">
         <v>329</v>
       </c>
-      <c r="ML1" t="s">
+      <c r="ML1" s="46" t="s">
         <v>330</v>
       </c>
-      <c r="MM1" t="s">
+      <c r="MM1" s="46" t="s">
         <v>331</v>
       </c>
-      <c r="MN1" t="s">
+      <c r="MN1" s="46" t="s">
         <v>332</v>
       </c>
-      <c r="MO1" t="s">
+      <c r="MO1" s="46" t="s">
         <v>333</v>
       </c>
-      <c r="MP1" t="s">
+      <c r="MP1" s="46" t="s">
         <v>334</v>
       </c>
-      <c r="MQ1" t="s">
+      <c r="MQ1" s="46" t="s">
         <v>335</v>
       </c>
-      <c r="MR1" t="s">
+      <c r="MR1" s="46" t="s">
         <v>336</v>
       </c>
-      <c r="MS1" t="s">
+      <c r="MS1" s="46" t="s">
         <v>337</v>
       </c>
-      <c r="MT1" t="s">
+      <c r="MT1" s="46" t="s">
         <v>338</v>
       </c>
-      <c r="MU1" t="s">
+      <c r="MU1" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="MV1" t="s">
+      <c r="MV1" s="46" t="s">
         <v>340</v>
       </c>
-      <c r="MW1" t="s">
+      <c r="MW1" s="46" t="s">
         <v>341</v>
       </c>
-      <c r="MX1" t="s">
+      <c r="MX1" s="46" t="s">
         <v>342</v>
       </c>
-      <c r="MY1" t="s">
+      <c r="MY1" s="46" t="s">
         <v>343</v>
       </c>
-      <c r="MZ1" t="s">
+      <c r="MZ1" s="46" t="s">
         <v>344</v>
       </c>
-      <c r="NA1" t="s">
+      <c r="NA1" s="46" t="s">
         <v>345</v>
       </c>
-      <c r="NB1" t="s">
+      <c r="NB1" s="46" t="s">
         <v>346</v>
       </c>
-      <c r="NC1" t="s">
+      <c r="NC1" s="46" t="s">
         <v>347</v>
       </c>
-      <c r="ND1" t="s">
+      <c r="ND1" s="46" t="s">
         <v>348</v>
       </c>
-      <c r="NE1" t="s">
+      <c r="NE1" s="46" t="s">
         <v>349</v>
       </c>
-      <c r="NF1" t="s">
+      <c r="NF1" s="46" t="s">
         <v>350</v>
       </c>
-      <c r="NG1" t="s">
+      <c r="NG1" s="46" t="s">
         <v>351</v>
       </c>
-      <c r="NH1" t="s">
+      <c r="NH1" s="46" t="s">
         <v>352</v>
       </c>
-      <c r="NI1" t="s">
+      <c r="NI1" s="46" t="s">
         <v>353</v>
       </c>
-      <c r="NJ1" t="s">
+      <c r="NJ1" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="NK1" t="s">
+      <c r="NK1" s="46" t="s">
         <v>355</v>
       </c>
-      <c r="NL1" t="s">
+      <c r="NL1" s="46" t="s">
         <v>356</v>
       </c>
-      <c r="NM1" t="s">
+      <c r="NM1" s="46" t="s">
         <v>357</v>
       </c>
-      <c r="NN1" t="s">
+      <c r="NN1" s="46" t="s">
         <v>358</v>
       </c>
-      <c r="NO1" t="s">
+      <c r="NO1" s="46" t="s">
         <v>359</v>
       </c>
-      <c r="NP1" t="s">
+      <c r="NP1" s="46" t="s">
         <v>360</v>
       </c>
-      <c r="NQ1" t="s">
+      <c r="NQ1" s="46" t="s">
         <v>361</v>
       </c>
-      <c r="NR1" t="s">
+      <c r="NR1" s="46" t="s">
         <v>362</v>
       </c>
-      <c r="NS1" t="s">
+      <c r="NS1" s="46" t="s">
         <v>363</v>
       </c>
-      <c r="NT1" t="s">
+      <c r="NT1" s="46" t="s">
         <v>364</v>
       </c>
-      <c r="NU1" t="s">
+      <c r="NU1" s="46" t="s">
         <v>365</v>
       </c>
-      <c r="NV1" t="s">
+      <c r="NV1" s="46" t="s">
         <v>366</v>
       </c>
-      <c r="NW1" t="s">
+      <c r="NW1" s="46" t="s">
         <v>367</v>
       </c>
-      <c r="NX1" t="s">
+      <c r="NX1" s="46" t="s">
         <v>368</v>
       </c>
-      <c r="NY1" t="s">
+      <c r="NY1" s="46" t="s">
         <v>369</v>
       </c>
-      <c r="NZ1" t="s">
+      <c r="NZ1" s="46" t="s">
         <v>370</v>
       </c>
-      <c r="OA1" t="s">
+      <c r="OA1" s="46" t="s">
         <v>371</v>
       </c>
-      <c r="OB1" t="s">
+      <c r="OB1" s="46" t="s">
         <v>372</v>
       </c>
-      <c r="OC1" t="s">
+      <c r="OC1" s="46" t="s">
         <v>373</v>
       </c>
-      <c r="OD1" t="s">
+      <c r="OD1" s="46" t="s">
         <v>374</v>
       </c>
-      <c r="OE1" t="s">
+      <c r="OE1" s="46" t="s">
         <v>375</v>
       </c>
-      <c r="OF1" t="s">
+      <c r="OF1" s="46" t="s">
         <v>376</v>
       </c>
-      <c r="OG1" t="s">
+      <c r="OG1" s="46" t="s">
         <v>377</v>
       </c>
     </row>
@@ -24236,10 +24263,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1:Q32"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -24904,21 +24931,21 @@
         <f t="shared" si="6"/>
         <v>746.75 ± 83.21</v>
       </c>
-      <c r="N27" s="5" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O27" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P27" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q27" s="2" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
+      <c r="N27" s="5" t="str">
+        <f>D25</f>
+        <v xml:space="preserve">OM (g d.w. /m2/yr) </v>
+      </c>
+      <c r="O27" s="7" t="str">
+        <f>D26</f>
+        <v>4189 ± 1116</v>
+      </c>
+      <c r="P27" s="7" t="str">
+        <f>D27</f>
+        <v>4093 ± 663</v>
+      </c>
+      <c r="Q27" s="2" t="str">
+        <f>D28</f>
+        <v>4244 ± 852</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -24946,81 +24973,63 @@
         <v>852.36 ± 205.15</v>
       </c>
       <c r="N28" s="5" t="str">
-        <f>D25</f>
-        <v xml:space="preserve">OM (g d.w. /m2/yr) </v>
+        <f>E25</f>
+        <v>TP (g P/m2/yr)</v>
       </c>
       <c r="O28" s="7" t="str">
-        <f>D26</f>
-        <v>4189 ± 1116</v>
+        <f>E26</f>
+        <v>1147.71 ± 125.74</v>
       </c>
       <c r="P28" s="7" t="str">
-        <f>D27</f>
-        <v>4093 ± 663</v>
+        <f>E27</f>
+        <v>1140.44 ± 94.53</v>
       </c>
       <c r="Q28" s="2" t="str">
-        <f>D28</f>
-        <v>4244 ± 852</v>
+        <f>E28</f>
+        <v>1244.61 ± 185.56</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N29" s="5" t="str">
-        <f>E25</f>
-        <v>TP (g P/m2/yr)</v>
+        <f>F25</f>
+        <v>IP (g d.w./m2/yr)</v>
       </c>
       <c r="O29" s="7" t="str">
-        <f>E26</f>
-        <v>1147.71 ± 125.74</v>
+        <f>F26</f>
+        <v>333.67 ± 49.49</v>
       </c>
       <c r="P29" s="7" t="str">
-        <f>E27</f>
-        <v>1140.44 ± 94.53</v>
+        <f>F27</f>
+        <v>393.69 ± 102.45</v>
       </c>
       <c r="Q29" s="2" t="str">
-        <f>E28</f>
-        <v>1244.61 ± 185.56</v>
+        <f>F28</f>
+        <v>392.25 ± 35.48</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N30" s="5" t="str">
-        <f>F25</f>
-        <v>IP (g d.w./m2/yr)</v>
-      </c>
-      <c r="O30" s="7" t="str">
-        <f>F26</f>
-        <v>333.67 ± 49.49</v>
-      </c>
-      <c r="P30" s="7" t="str">
-        <f>F27</f>
-        <v>393.69 ± 102.45</v>
-      </c>
-      <c r="Q30" s="2" t="str">
-        <f>F28</f>
-        <v>392.25 ± 35.48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N31" s="5" t="str">
         <f>G25</f>
         <v>OP (g d.w./m2/yr)</v>
       </c>
-      <c r="O31" s="7" t="str">
+      <c r="O30" s="7" t="str">
         <f>G26</f>
         <v>814.04 ± 106.8</v>
       </c>
-      <c r="P31" s="7" t="str">
+      <c r="P30" s="7" t="str">
         <f>G27</f>
         <v>746.75 ± 83.21</v>
       </c>
-      <c r="Q31" s="2" t="str">
+      <c r="Q30" s="2" t="str">
         <f>G28</f>
         <v>852.36 ± 205.15</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25049,22 +25058,22 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
-        <v>896</v>
+        <v>883</v>
       </c>
       <c r="D1" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
       <c r="E1" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
       <c r="F1" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
       <c r="G1" t="s">
-        <v>901</v>
+        <v>888</v>
       </c>
       <c r="H1" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -28051,7 +28060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -28065,8 +28074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:XFD20"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28117,7 +28126,7 @@
     </row>
     <row r="3" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
-        <v>820</v>
+        <v>808</v>
       </c>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -28128,7 +28137,7 @@
     </row>
     <row r="4" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="17" t="s">
-        <v>757</v>
+        <v>889</v>
       </c>
       <c r="B4" s="18" t="s">
         <v>689</v>
@@ -28151,7 +28160,7 @@
     </row>
     <row r="5" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="17" t="s">
-        <v>758</v>
+        <v>890</v>
       </c>
       <c r="B5" s="18" t="s">
         <v>695</v>
@@ -28174,7 +28183,7 @@
     </row>
     <row r="6" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
-        <v>759</v>
+        <v>891</v>
       </c>
       <c r="B6" s="18" t="s">
         <v>701</v>
@@ -28197,7 +28206,7 @@
     </row>
     <row r="7" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17" t="s">
-        <v>760</v>
+        <v>892</v>
       </c>
       <c r="B7" s="18" t="s">
         <v>707</v>
@@ -28220,7 +28229,7 @@
     </row>
     <row r="8" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="17" t="s">
-        <v>761</v>
+        <v>893</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>713</v>
@@ -28243,7 +28252,7 @@
     </row>
     <row r="9" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
-        <v>821</v>
+        <v>903</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="36"/>
@@ -28254,7 +28263,7 @@
     </row>
     <row r="10" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17" t="s">
-        <v>755</v>
+        <v>896</v>
       </c>
       <c r="B10" s="18" t="s">
         <v>719</v>
@@ -28277,7 +28286,7 @@
     </row>
     <row r="11" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17" t="s">
-        <v>770</v>
+        <v>895</v>
       </c>
       <c r="B11" s="18" t="s">
         <v>725</v>
@@ -28300,7 +28309,7 @@
     </row>
     <row r="12" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
-        <v>756</v>
+        <v>894</v>
       </c>
       <c r="B12" s="18">
         <v>107</v>
@@ -28323,7 +28332,7 @@
     </row>
     <row r="13" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="17" t="s">
-        <v>769</v>
+        <v>901</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>731</v>
@@ -28346,7 +28355,7 @@
     </row>
     <row r="14" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="17" t="s">
-        <v>767</v>
+        <v>902</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>737</v>
@@ -28369,7 +28378,7 @@
     </row>
     <row r="15" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17" t="s">
-        <v>768</v>
+        <v>900</v>
       </c>
       <c r="B15" s="18">
         <v>104</v>
@@ -28392,7 +28401,7 @@
     </row>
     <row r="16" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
-        <v>755</v>
+        <v>897</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>743</v>
@@ -28415,7 +28424,7 @@
     </row>
     <row r="17" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="17" t="s">
-        <v>771</v>
+        <v>898</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>749</v>
@@ -28438,7 +28447,7 @@
     </row>
     <row r="18" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="17" t="s">
-        <v>756</v>
+        <v>899</v>
       </c>
       <c r="B18" s="18">
         <v>105</v>
@@ -28461,7 +28470,7 @@
     </row>
     <row r="19" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
-        <v>822</v>
+        <v>809</v>
       </c>
       <c r="B19" s="36"/>
       <c r="C19" s="36"/>
@@ -28472,7 +28481,7 @@
     </row>
     <row r="20" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>762</v>
+        <v>755</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>660</v>
@@ -28495,7 +28504,7 @@
     </row>
     <row r="21" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>666</v>
@@ -28518,7 +28527,7 @@
     </row>
     <row r="22" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B22" s="18" t="s">
         <v>672</v>
@@ -28541,7 +28550,7 @@
     </row>
     <row r="23" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>765</v>
+        <v>758</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>677</v>
@@ -28564,7 +28573,7 @@
     </row>
     <row r="24" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B24" s="20" t="s">
         <v>682</v>
@@ -28587,30 +28596,30 @@
     </row>
     <row r="25" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
       <c r="B25" s="20" t="s">
         <v>694</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="G25" s="20" t="s">
-        <v>776</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="35" t="s">
-        <v>823</v>
+        <v>810</v>
       </c>
       <c r="B26" s="36"/>
       <c r="C26" s="36"/>
@@ -28621,137 +28630,137 @@
     </row>
     <row r="27" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17" t="s">
+        <v>795</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>804</v>
+      </c>
+      <c r="E27" s="17" t="s">
+        <v>805</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>806</v>
+      </c>
+      <c r="G27" s="18" t="s">
         <v>807</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>814</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>815</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>816</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>817</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>818</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17" t="s">
-        <v>813</v>
+        <v>801</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="17" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
       <c r="E29" s="17" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>788</v>
+        <v>776</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
       <c r="E30" s="17" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
       <c r="E31" s="17" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17" t="s">
-        <v>809</v>
+        <v>797</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="E32" s="17" t="s">
-        <v>805</v>
+        <v>793</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>806</v>
+        <v>794</v>
       </c>
       <c r="G32" s="18"/>
     </row>
@@ -28771,10 +28780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F12"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -28785,118 +28794,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="43" t="s">
+        <v>904</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="B2" s="22">
-        <v>43833</v>
-      </c>
-      <c r="C2" s="22">
-        <v>43833</v>
-      </c>
-      <c r="D2" s="22">
-        <v>43833</v>
-      </c>
-      <c r="E2" s="22">
-        <v>43833</v>
-      </c>
-      <c r="F2" s="22">
-        <v>43833</v>
-      </c>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="37"/>
     </row>
     <row r="3" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="21" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B3" s="22">
         <v>43833</v>
       </c>
       <c r="C3" s="22">
-        <v>43907</v>
+        <v>43833</v>
       </c>
       <c r="D3" s="22">
-        <v>43952</v>
+        <v>43833</v>
       </c>
       <c r="E3" s="22">
-        <v>44027</v>
+        <v>43833</v>
       </c>
       <c r="F3" s="22">
-        <v>44130</v>
+        <v>43833</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="B4" s="20">
-        <v>0</v>
-      </c>
-      <c r="C4" s="20">
-        <v>74</v>
-      </c>
-      <c r="D4" s="20">
-        <v>119</v>
-      </c>
-      <c r="E4" s="20">
-        <v>194</v>
-      </c>
-      <c r="F4" s="20">
-        <v>297</v>
+        <v>514</v>
+      </c>
+      <c r="B4" s="22">
+        <v>43833</v>
+      </c>
+      <c r="C4" s="22">
+        <v>43907</v>
+      </c>
+      <c r="D4" s="22">
+        <v>43952</v>
+      </c>
+      <c r="E4" s="22">
+        <v>44027</v>
+      </c>
+      <c r="F4" s="22">
+        <v>44130</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>575</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>576</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>577</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>578</v>
+        <v>516</v>
+      </c>
+      <c r="B5" s="20">
+        <v>0</v>
+      </c>
+      <c r="C5" s="20">
+        <v>74</v>
+      </c>
+      <c r="D5" s="20">
+        <v>119</v>
+      </c>
+      <c r="E5" s="20">
+        <v>194</v>
+      </c>
+      <c r="F5" s="20">
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
-        <v>627</v>
+        <v>518</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>379</v>
+        <v>525</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B7" s="20" t="s">
         <v>379</v>
@@ -28905,188 +28904,188 @@
         <v>598</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="21" t="s">
-        <v>408</v>
+        <v>628</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>579</v>
+        <v>379</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>581</v>
+        <v>602</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>582</v>
+        <v>603</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>583</v>
+        <v>604</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="21" t="s">
-        <v>595</v>
+        <v>408</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F9" s="20" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>584</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>586</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>587</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B11" s="20" t="s">
         <v>589</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>590</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>591</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E11" s="20" t="s">
         <v>592</v>
       </c>
-      <c r="F10" s="20" t="s">
+      <c r="F11" s="20" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
+    <row r="12" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35" t="s">
         <v>629</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
-    </row>
-    <row r="12" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="B12" s="22">
-        <v>43779</v>
-      </c>
-      <c r="C12" s="22">
-        <v>43779</v>
-      </c>
-      <c r="D12" s="22">
-        <v>43779</v>
-      </c>
-      <c r="E12" s="22">
-        <v>43779</v>
-      </c>
-      <c r="F12" s="22">
-        <v>43779</v>
-      </c>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="37"/>
     </row>
     <row r="13" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="21" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B13" s="22">
         <v>43779</v>
       </c>
       <c r="C13" s="22">
-        <v>43907</v>
+        <v>43779</v>
       </c>
       <c r="D13" s="22">
-        <v>43952</v>
+        <v>43779</v>
       </c>
       <c r="E13" s="22">
-        <v>44027</v>
+        <v>43779</v>
       </c>
       <c r="F13" s="22">
-        <v>44130</v>
+        <v>43779</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="B14" s="20">
-        <v>0</v>
-      </c>
-      <c r="C14" s="20">
-        <v>128</v>
-      </c>
-      <c r="D14" s="20">
-        <v>173</v>
-      </c>
-      <c r="E14" s="20">
-        <v>248</v>
-      </c>
-      <c r="F14" s="20">
-        <v>351</v>
+        <v>514</v>
+      </c>
+      <c r="B14" s="22">
+        <v>43779</v>
+      </c>
+      <c r="C14" s="22">
+        <v>43907</v>
+      </c>
+      <c r="D14" s="22">
+        <v>43952</v>
+      </c>
+      <c r="E14" s="22">
+        <v>44027</v>
+      </c>
+      <c r="F14" s="22">
+        <v>44130</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>526</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>527</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>528</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>529</v>
+        <v>516</v>
+      </c>
+      <c r="B15" s="20">
+        <v>0</v>
+      </c>
+      <c r="C15" s="20">
+        <v>128</v>
+      </c>
+      <c r="D15" s="20">
+        <v>173</v>
+      </c>
+      <c r="E15" s="20">
+        <v>248</v>
+      </c>
+      <c r="F15" s="20">
+        <v>351</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="21" t="s">
-        <v>627</v>
+        <v>518</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>379</v>
+        <v>525</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>605</v>
+        <v>526</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>606</v>
+        <v>527</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>607</v>
+        <v>528</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>608</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>379</v>
@@ -29095,188 +29094,188 @@
         <v>605</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="21" t="s">
-        <v>408</v>
+        <v>628</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>531</v>
+        <v>379</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>532</v>
+        <v>605</v>
       </c>
       <c r="D18" s="20" t="s">
-        <v>533</v>
+        <v>609</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>534</v>
+        <v>610</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>535</v>
+        <v>611</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="21" t="s">
-        <v>595</v>
+        <v>408</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="E19" s="20" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>537</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>538</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>539</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>540</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B21" s="20" t="s">
         <v>543</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C21" s="20" t="s">
         <v>544</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D21" s="20" t="s">
         <v>545</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E21" s="20" t="s">
         <v>546</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F21" s="20" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
+    <row r="22" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="35" t="s">
         <v>630</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-    </row>
-    <row r="22" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
-        <v>507</v>
-      </c>
-      <c r="B22" s="22">
-        <v>43779</v>
-      </c>
-      <c r="C22" s="22">
-        <v>43779</v>
-      </c>
-      <c r="D22" s="22">
-        <v>43779</v>
-      </c>
-      <c r="E22" s="22">
-        <v>43779</v>
-      </c>
-      <c r="F22" s="22">
-        <v>43779</v>
-      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="37"/>
     </row>
     <row r="23" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="21" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="B23" s="22">
         <v>43779</v>
       </c>
       <c r="C23" s="22">
-        <v>43907</v>
+        <v>43779</v>
       </c>
       <c r="D23" s="22">
-        <v>43952</v>
+        <v>43779</v>
       </c>
       <c r="E23" s="22">
-        <v>44027</v>
+        <v>43779</v>
       </c>
       <c r="F23" s="22">
-        <v>44133</v>
+        <v>43779</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="21" t="s">
-        <v>516</v>
-      </c>
-      <c r="B24" s="20">
-        <v>0</v>
-      </c>
-      <c r="C24" s="20">
-        <v>128</v>
-      </c>
-      <c r="D24" s="20">
-        <v>173</v>
-      </c>
-      <c r="E24" s="20">
-        <v>248</v>
-      </c>
-      <c r="F24" s="20">
-        <v>354</v>
+        <v>514</v>
+      </c>
+      <c r="B24" s="22">
+        <v>43779</v>
+      </c>
+      <c r="C24" s="22">
+        <v>43907</v>
+      </c>
+      <c r="D24" s="22">
+        <v>43952</v>
+      </c>
+      <c r="E24" s="22">
+        <v>44027</v>
+      </c>
+      <c r="F24" s="22">
+        <v>44133</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>518</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>525</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>553</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="E25" s="20" t="s">
-        <v>555</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>556</v>
+        <v>516</v>
+      </c>
+      <c r="B25" s="20">
+        <v>0</v>
+      </c>
+      <c r="C25" s="20">
+        <v>128</v>
+      </c>
+      <c r="D25" s="20">
+        <v>173</v>
+      </c>
+      <c r="E25" s="20">
+        <v>248</v>
+      </c>
+      <c r="F25" s="20">
+        <v>354</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>627</v>
+        <v>518</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>379</v>
+        <v>525</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>612</v>
+        <v>553</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>613</v>
+        <v>554</v>
       </c>
       <c r="E26" s="20" t="s">
-        <v>614</v>
+        <v>555</v>
       </c>
       <c r="F26" s="20" t="s">
-        <v>615</v>
+        <v>556</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B27" s="20" t="s">
         <v>379</v>
@@ -29285,80 +29284,101 @@
         <v>612</v>
       </c>
       <c r="D27" s="20" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E27" s="20" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="21" t="s">
-        <v>408</v>
+        <v>628</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>557</v>
+        <v>379</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>558</v>
+        <v>612</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>559</v>
+        <v>616</v>
       </c>
       <c r="E28" s="20" t="s">
-        <v>560</v>
+        <v>611</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>561</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="21" t="s">
-        <v>595</v>
+        <v>408</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="E29" s="20" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F29" s="20" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="21" t="s">
+        <v>595</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>562</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>563</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>564</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>565</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B31" s="20" t="s">
         <v>568</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C31" s="20" t="s">
         <v>569</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D31" s="20" t="s">
         <v>570</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E31" s="20" t="s">
         <v>571</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F31" s="20" t="s">
         <v>572</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A22:F22"/>
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A21:F21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -29370,7 +29390,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="A1:I22"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -29384,36 +29404,36 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="40" t="s">
-        <v>851</v>
+        <v>838</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -29426,7 +29446,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>386</v>
@@ -29450,12 +29470,12 @@
         <v>1.932E-2</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>386</v>
@@ -29479,12 +29499,12 @@
         <v>0.16800000000000001</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>386</v>
@@ -29508,12 +29528,12 @@
         <v>0.16800000000000001</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>386</v>
@@ -29537,12 +29557,12 @@
         <v>0.84</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>386</v>
@@ -29566,12 +29586,12 @@
         <v>1</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
-        <v>852</v>
+        <v>839</v>
       </c>
       <c r="B8" s="40"/>
       <c r="C8" s="40"/>
@@ -29584,7 +29604,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>386</v>
@@ -29608,12 +29628,12 @@
         <v>0.16800000000000001</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>386</v>
@@ -29637,12 +29657,12 @@
         <v>0.504</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
-        <v>808</v>
+        <v>796</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>386</v>
@@ -29666,12 +29686,12 @@
         <v>0.67200000000000004</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>386</v>
@@ -29695,12 +29715,12 @@
         <v>1</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>882</v>
+        <v>869</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>386</v>
@@ -29724,12 +29744,12 @@
         <v>1</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
-        <v>880</v>
+        <v>867</v>
       </c>
       <c r="B14" s="10" t="s">
         <v>386</v>
@@ -29753,12 +29773,12 @@
         <v>1</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>386</v>
@@ -29782,12 +29802,12 @@
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
-        <v>879</v>
+        <v>866</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>386</v>
@@ -29811,12 +29831,12 @@
         <v>1</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="40" t="s">
-        <v>853</v>
+        <v>840</v>
       </c>
       <c r="B17" s="40"/>
       <c r="C17" s="40"/>
@@ -29829,7 +29849,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>881</v>
+        <v>868</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>386</v>
@@ -29853,12 +29873,12 @@
         <v>1.35269999999999E-2</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
-        <v>766</v>
+        <v>759</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>386</v>
@@ -29882,12 +29902,12 @@
         <v>7.8731999999999996E-2</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
-        <v>764</v>
+        <v>757</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>386</v>
@@ -29911,12 +29931,12 @@
         <v>0.32400000000000001</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
-        <v>763</v>
+        <v>756</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>386</v>
@@ -29940,12 +29960,12 @@
         <v>0.64800000000000002</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>878</v>
+        <v>865</v>
       </c>
       <c r="B22" s="10" t="s">
         <v>386</v>
@@ -29969,7 +29989,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>836</v>
+        <v>823</v>
       </c>
     </row>
   </sheetData>
@@ -29987,7 +30007,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="A1:E24"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -30001,24 +30021,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>850</v>
+        <v>837</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>884</v>
+        <v>871</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>883</v>
+        <v>870</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="35" t="s">
-        <v>894</v>
+        <v>881</v>
       </c>
       <c r="B2" s="36"/>
       <c r="C2" s="36"/>
@@ -30044,7 +30064,7 @@
     </row>
     <row r="4" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="B4" s="20">
         <v>-0.9</v>
@@ -30061,7 +30081,7 @@
     </row>
     <row r="5" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="B5" s="20">
         <v>0.83</v>
@@ -30078,7 +30098,7 @@
     </row>
     <row r="6" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="B6" s="20">
         <v>0.78</v>
@@ -30095,7 +30115,7 @@
     </row>
     <row r="7" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="B7" s="20">
         <v>0.76</v>
@@ -30112,7 +30132,7 @@
     </row>
     <row r="8" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
-        <v>893</v>
+        <v>880</v>
       </c>
       <c r="B8" s="20">
         <v>-0.75</v>
@@ -30129,7 +30149,7 @@
     </row>
     <row r="9" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="B9" s="20">
         <v>-0.72</v>
@@ -30146,7 +30166,7 @@
     </row>
     <row r="10" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B10" s="20">
         <v>-0.72</v>
@@ -30163,7 +30183,7 @@
     </row>
     <row r="11" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="B11" s="20">
         <v>-0.71</v>
@@ -30180,7 +30200,7 @@
     </row>
     <row r="12" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
-        <v>895</v>
+        <v>882</v>
       </c>
       <c r="B12" s="36"/>
       <c r="C12" s="36"/>
@@ -30206,7 +30226,7 @@
     </row>
     <row r="14" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="B14" s="20">
         <v>-0.88</v>
@@ -30223,7 +30243,7 @@
     </row>
     <row r="15" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
-        <v>887</v>
+        <v>874</v>
       </c>
       <c r="B15" s="20">
         <v>0.81</v>
@@ -30240,7 +30260,7 @@
     </row>
     <row r="16" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
-        <v>886</v>
+        <v>873</v>
       </c>
       <c r="B16" s="20">
         <v>0.81</v>
@@ -30257,7 +30277,7 @@
     </row>
     <row r="17" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
-        <v>892</v>
+        <v>879</v>
       </c>
       <c r="B17" s="20">
         <v>-0.79</v>
@@ -30274,7 +30294,7 @@
     </row>
     <row r="18" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
-        <v>889</v>
+        <v>876</v>
       </c>
       <c r="B18" s="20">
         <v>-0.79</v>
@@ -30291,7 +30311,7 @@
     </row>
     <row r="19" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
-        <v>890</v>
+        <v>877</v>
       </c>
       <c r="B19" s="20">
         <v>-0.79</v>
@@ -30308,7 +30328,7 @@
     </row>
     <row r="20" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
-        <v>885</v>
+        <v>872</v>
       </c>
       <c r="B20" s="20">
         <v>0.77</v>
@@ -30325,7 +30345,7 @@
     </row>
     <row r="21" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
-        <v>811</v>
+        <v>799</v>
       </c>
       <c r="B21" s="20">
         <v>-0.77</v>
@@ -30342,7 +30362,7 @@
     </row>
     <row r="22" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
-        <v>888</v>
+        <v>875</v>
       </c>
       <c r="B22" s="20">
         <v>0.76</v>
@@ -30359,7 +30379,7 @@
     </row>
     <row r="23" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
-        <v>810</v>
+        <v>798</v>
       </c>
       <c r="B23" s="20">
         <v>-0.75</v>
@@ -30376,7 +30396,7 @@
     </row>
     <row r="24" spans="1:5" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
-        <v>812</v>
+        <v>800</v>
       </c>
       <c r="B24" s="20">
         <v>-0.73</v>
@@ -30405,7 +30425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
@@ -30419,36 +30439,36 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>841</v>
+        <v>828</v>
       </c>
       <c r="B1" t="s">
-        <v>837</v>
+        <v>824</v>
       </c>
       <c r="C1" t="s">
-        <v>838</v>
+        <v>825</v>
       </c>
       <c r="D1" t="s">
-        <v>839</v>
+        <v>826</v>
       </c>
       <c r="E1" t="s">
-        <v>840</v>
+        <v>827</v>
       </c>
       <c r="F1" t="s">
-        <v>831</v>
+        <v>818</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>832</v>
+        <v>819</v>
       </c>
       <c r="H1" t="s">
-        <v>833</v>
+        <v>820</v>
       </c>
       <c r="I1" t="s">
-        <v>834</v>
+        <v>821</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="41" t="s">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -30461,13 +30481,13 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="B3" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C3" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="D3">
         <v>40</v>
@@ -30485,20 +30505,20 @@
         <v>1.9799999999999999E-11</v>
       </c>
       <c r="I3" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="B4" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C4" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="D4">
         <v>59</v>
@@ -30516,20 +30536,20 @@
         <v>7.56799999999999E-11</v>
       </c>
       <c r="I4" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="B5" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C5" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="D5">
         <v>45</v>
@@ -30547,20 +30567,20 @@
         <v>4.3559999999999997E-10</v>
       </c>
       <c r="I5" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="B6" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C6" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="D6">
         <v>59</v>
@@ -30578,20 +30598,20 @@
         <v>9.3610000000000002E-8</v>
       </c>
       <c r="I6" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="B7" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C7" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="D7">
         <v>49</v>
@@ -30609,20 +30629,20 @@
         <v>3.41E-6</v>
       </c>
       <c r="I7" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="B8" t="s">
-        <v>843</v>
+        <v>830</v>
       </c>
       <c r="C8" t="s">
-        <v>844</v>
+        <v>831</v>
       </c>
       <c r="D8">
         <v>59</v>
@@ -30640,14 +30660,14 @@
         <v>3.4759999999999998E-6</v>
       </c>
       <c r="I8" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
-        <v>876</v>
+        <v>863</v>
       </c>
       <c r="B9" s="41"/>
       <c r="C9" s="41"/>
@@ -30660,13 +30680,13 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="B10" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="C10" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="D10">
         <v>97</v>
@@ -30684,18 +30704,18 @@
         <v>8.2279999999999999E-11</v>
       </c>
       <c r="I10" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="B11" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="C11" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="D11">
         <v>26</v>
@@ -30713,18 +30733,18 @@
         <v>1.3595999999999999E-10</v>
       </c>
       <c r="I11" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="B12" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="C12" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="D12">
         <v>39</v>
@@ -30742,18 +30762,18 @@
         <v>1.2188E-8</v>
       </c>
       <c r="I12" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="B13" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="C13" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="D13">
         <v>54</v>
@@ -30771,18 +30791,18 @@
         <v>4.2019999999999901E-7</v>
       </c>
       <c r="I13" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="B14" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="C14" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="D14">
         <v>29</v>
@@ -30800,18 +30820,18 @@
         <v>7.8760000000000005E-6</v>
       </c>
       <c r="I14" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="B15" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="C15" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="D15">
         <v>39</v>
@@ -30829,18 +30849,18 @@
         <v>1.1307999999999999E-4</v>
       </c>
       <c r="I15" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="B16" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="C16" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="D16">
         <v>14</v>
@@ -30858,18 +30878,18 @@
         <v>3.5023999999999998E-4</v>
       </c>
       <c r="I16" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="B17" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="C17" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="D17">
         <v>14</v>
@@ -30887,18 +30907,18 @@
         <v>1.122E-3</v>
       </c>
       <c r="I17" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="B18" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="C18" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="D18">
         <v>39</v>
@@ -30916,18 +30936,18 @@
         <v>1.4607999999999999E-3</v>
       </c>
       <c r="I18" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="B19" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="C19" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="D19">
         <v>16</v>
@@ -30945,18 +30965,18 @@
         <v>1.8611999999999999E-3</v>
       </c>
       <c r="I19" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>829</v>
+      </c>
+      <c r="B20" t="s">
+        <v>841</v>
+      </c>
+      <c r="C20" t="s">
         <v>842</v>
-      </c>
-      <c r="B20" t="s">
-        <v>854</v>
-      </c>
-      <c r="C20" t="s">
-        <v>855</v>
       </c>
       <c r="D20">
         <v>20</v>
@@ -30974,18 +30994,18 @@
         <v>3.0536000000000001E-3</v>
       </c>
       <c r="I20" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="B21" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="C21" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="D21">
         <v>123</v>
@@ -31003,18 +31023,18 @@
         <v>3.3352E-3</v>
       </c>
       <c r="I21" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="B22" t="s">
-        <v>854</v>
+        <v>841</v>
       </c>
       <c r="C22" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="D22">
         <v>20</v>
@@ -31032,18 +31052,18 @@
         <v>5.104E-3</v>
       </c>
       <c r="I22" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="B23" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="C23" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="D23">
         <v>11</v>
@@ -31061,18 +31081,18 @@
         <v>1.166E-2</v>
       </c>
       <c r="I23" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="B24" t="s">
-        <v>855</v>
+        <v>842</v>
       </c>
       <c r="C24" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="D24">
         <v>91</v>
@@ -31090,18 +31110,18 @@
         <v>1.2848E-2</v>
       </c>
       <c r="I24" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="B25" t="s">
-        <v>857</v>
+        <v>844</v>
       </c>
       <c r="C25" t="s">
-        <v>858</v>
+        <v>845</v>
       </c>
       <c r="D25">
         <v>29</v>
@@ -31119,12 +31139,12 @@
         <v>1.5224E-2</v>
       </c>
       <c r="I25" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="s">
-        <v>875</v>
+        <v>862</v>
       </c>
       <c r="B26" s="41"/>
       <c r="C26" s="41"/>
@@ -31145,13 +31165,13 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="B27" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="C27" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="D27">
         <v>30</v>
@@ -31169,20 +31189,20 @@
         <v>5.5440000000000004E-7</v>
       </c>
       <c r="I27" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="B28" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="C28" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="D28">
         <v>20</v>
@@ -31200,20 +31220,20 @@
         <v>3.6959999999999998E-6</v>
       </c>
       <c r="I28" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="B29" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="C29" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="D29">
         <v>20</v>
@@ -31231,20 +31251,20 @@
         <v>7.1719999999999899E-6</v>
       </c>
       <c r="I29" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="B30" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="C30" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="D30">
         <v>20</v>
@@ -31262,20 +31282,20 @@
         <v>7.2599999999999999E-6</v>
       </c>
       <c r="I30" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="B31" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="C31" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="D31">
         <v>158</v>
@@ -31293,20 +31313,20 @@
         <v>4.2503999999999998E-5</v>
       </c>
       <c r="I31" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="B32" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="C32" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="D32">
         <v>272</v>
@@ -31324,20 +31344,20 @@
         <v>6.6000000000000005E-5</v>
       </c>
       <c r="I32" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="B33" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="C33" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="D33">
         <v>25</v>
@@ -31355,20 +31375,20 @@
         <v>1.9272000000000001E-4</v>
       </c>
       <c r="I33" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="B34" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="C34" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="D34">
         <v>115</v>
@@ -31386,20 +31406,20 @@
         <v>2.2395999999999999E-4</v>
       </c>
       <c r="I34" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="B35" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="C35" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="D35">
         <v>28</v>
@@ -31417,20 +31437,20 @@
         <v>2.6884000000000001E-4</v>
       </c>
       <c r="I35" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="B36" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="C36" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="D36">
         <v>24</v>
@@ -31448,20 +31468,20 @@
         <v>2.8731999999999998E-4</v>
       </c>
       <c r="I36" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="B37" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="C37" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="D37">
         <v>28</v>
@@ -31479,20 +31499,20 @@
         <v>9.1520000000000002E-4</v>
       </c>
       <c r="I37" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="B38" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="C38" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="D38">
         <v>29</v>
@@ -31510,19 +31530,19 @@
         <v>1.0647999999999901E-3</v>
       </c>
       <c r="I38" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="P38" s="1"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="B39" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="C39" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="D39">
         <v>200</v>
@@ -31540,19 +31560,19 @@
         <v>1.94479999999999E-3</v>
       </c>
       <c r="I39" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="P39" s="1"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="B40" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="C40" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="D40">
         <v>31</v>
@@ -31570,19 +31590,19 @@
         <v>5.4120000000000001E-3</v>
       </c>
       <c r="I40" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="P40" s="1"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="B41" t="s">
-        <v>865</v>
+        <v>852</v>
       </c>
       <c r="C41" t="s">
-        <v>871</v>
+        <v>858</v>
       </c>
       <c r="D41">
         <v>43</v>
@@ -31600,19 +31620,19 @@
         <v>6.1159999999999999E-3</v>
       </c>
       <c r="I41" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
       <c r="P41" s="1"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="B42" t="s">
-        <v>864</v>
+        <v>851</v>
       </c>
       <c r="C42" t="s">
-        <v>870</v>
+        <v>857</v>
       </c>
       <c r="D42">
         <v>20</v>
@@ -31630,13 +31650,13 @@
         <v>1.0824E-2</v>
       </c>
       <c r="I42" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
       <c r="P42" s="1"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="41" t="s">
-        <v>863</v>
+        <v>850</v>
       </c>
       <c r="B43" s="41"/>
       <c r="C43" s="41"/>
@@ -31649,13 +31669,13 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="B44" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="C44" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="D44">
         <v>196</v>
@@ -31673,18 +31693,18 @@
         <v>1.18668E-7</v>
       </c>
       <c r="I44" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="B45" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="C45" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="D45">
         <v>47</v>
@@ -31702,18 +31722,18 @@
         <v>4.9895999999999996E-7</v>
       </c>
       <c r="I45" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="B46" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="C46" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="D46">
         <v>132</v>
@@ -31731,18 +31751,18 @@
         <v>1.5048E-6</v>
       </c>
       <c r="I46" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="B47" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="C47" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="D47">
         <v>14</v>
@@ -31760,18 +31780,18 @@
         <v>1.6499999999999899E-6</v>
       </c>
       <c r="I47" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="B48" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="C48" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="D48">
         <v>150</v>
@@ -31789,18 +31809,18 @@
         <v>2.8115999999999999E-6</v>
       </c>
       <c r="I48" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="B49" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="C49" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="D49">
         <v>19</v>
@@ -31818,18 +31838,18 @@
         <v>8.1839999999999999E-6</v>
       </c>
       <c r="I49" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="B50" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="C50" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="D50">
         <v>26</v>
@@ -31847,18 +31867,18 @@
         <v>2.8248000000000001E-5</v>
       </c>
       <c r="I50" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>847</v>
+        <v>834</v>
       </c>
       <c r="B51" t="s">
-        <v>874</v>
+        <v>861</v>
       </c>
       <c r="C51" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="D51">
         <v>47</v>
@@ -31876,18 +31896,18 @@
         <v>8.9231999999999894E-5</v>
       </c>
       <c r="I51" t="s">
-        <v>845</v>
+        <v>832</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="B52" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="C52" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="D52">
         <v>37</v>
@@ -31905,18 +31925,18 @@
         <v>7.0883999999999997E-4</v>
       </c>
       <c r="I52" t="s">
-        <v>860</v>
+        <v>847</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="B53" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="C53" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="D53">
         <v>50</v>
@@ -31934,18 +31954,18 @@
         <v>1.3595999999999899E-3</v>
       </c>
       <c r="I53" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="B54" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="C54" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="D54">
         <v>12</v>
@@ -31963,18 +31983,18 @@
         <v>1.7292E-3</v>
       </c>
       <c r="I54" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="B55" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="C55" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="D55">
         <v>15</v>
@@ -31992,18 +32012,18 @@
         <v>5.1612000000000003E-3</v>
       </c>
       <c r="I55" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>849</v>
+        <v>836</v>
       </c>
       <c r="B56" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="C56" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="D56">
         <v>6</v>
@@ -32021,18 +32041,18 @@
         <v>6.8111999999999999E-3</v>
       </c>
       <c r="I56" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="B57" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="C57" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="D57">
         <v>9</v>
@@ -32050,18 +32070,18 @@
         <v>8.6591999999999902E-3</v>
       </c>
       <c r="I57" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>848</v>
+        <v>835</v>
       </c>
       <c r="B58" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="C58" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="D58">
         <v>13</v>
@@ -32079,18 +32099,18 @@
         <v>9.6623999999999998E-3</v>
       </c>
       <c r="I58" t="s">
-        <v>856</v>
+        <v>843</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>842</v>
+        <v>829</v>
       </c>
       <c r="B59" t="s">
-        <v>866</v>
+        <v>853</v>
       </c>
       <c r="C59" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="D59">
         <v>8</v>
@@ -32108,18 +32128,18 @@
         <v>1.18272E-2</v>
       </c>
       <c r="I59" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>846</v>
+        <v>833</v>
       </c>
       <c r="B60" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="C60" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="D60">
         <v>20</v>
@@ -32137,18 +32157,18 @@
         <v>1.37279999999999E-2</v>
       </c>
       <c r="I60" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>877</v>
+        <v>864</v>
       </c>
       <c r="B61" t="s">
-        <v>872</v>
+        <v>859</v>
       </c>
       <c r="C61" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="D61">
         <v>14</v>
@@ -32166,18 +32186,18 @@
         <v>2.3628E-2</v>
       </c>
       <c r="I61" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>861</v>
+        <v>848</v>
       </c>
       <c r="B62" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="C62" t="s">
-        <v>873</v>
+        <v>860</v>
       </c>
       <c r="D62">
         <v>73</v>
@@ -32195,18 +32215,18 @@
         <v>2.4948000000000001E-2</v>
       </c>
       <c r="I62" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="B63" t="s">
-        <v>868</v>
+        <v>855</v>
       </c>
       <c r="C63" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="D63">
         <v>7</v>
@@ -32224,18 +32244,18 @@
         <v>2.5871999999999999E-2</v>
       </c>
       <c r="I63" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>859</v>
+        <v>846</v>
       </c>
       <c r="B64" t="s">
-        <v>867</v>
+        <v>854</v>
       </c>
       <c r="C64" t="s">
-        <v>869</v>
+        <v>856</v>
       </c>
       <c r="D64">
         <v>6</v>
@@ -32253,7 +32273,7 @@
         <v>3.7356E-2</v>
       </c>
       <c r="I64" t="s">
-        <v>835</v>
+        <v>822</v>
       </c>
     </row>
   </sheetData>
@@ -32619,7 +32639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -33283,7 +33303,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:BE36"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="AQ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="BA6" sqref="BA6"/>
     </sheetView>
   </sheetViews>
